--- a/www/templates/publications_manifest.xlsx
+++ b/www/templates/publications_manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DF532F-C627-6B46-90AA-B05D6A52787A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF81D16-B6A0-2F4A-A792-9408380002FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="460" windowWidth="24600" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="480">
   <si>
     <t>doi</t>
   </si>
@@ -352,12 +352,6 @@
     <t>Immunohistochemistry Staining Method</t>
   </si>
   <si>
-    <t>In Situ Hybridization</t>
-  </si>
-  <si>
-    <t>In Vitro Selection</t>
-  </si>
-  <si>
     <t>in vivo Bioluminescence</t>
   </si>
   <si>
@@ -520,9 +514,6 @@
     <t>RT-PCR</t>
   </si>
   <si>
-    <t>Scanning angle interference microscopy</t>
-  </si>
-  <si>
     <t>scCGIseq</t>
   </si>
   <si>
@@ -1412,6 +1403,78 @@
   </si>
   <si>
     <t>Hepatocellular Carcinoma</t>
+  </si>
+  <si>
+    <t>Agarose-Embedded Gradient Assay</t>
+  </si>
+  <si>
+    <t>Cell Interaction Assay</t>
+  </si>
+  <si>
+    <t>ChIP-PCR</t>
+  </si>
+  <si>
+    <t>Deep Mutational Scanning</t>
+  </si>
+  <si>
+    <t>Dynamic Light Scattering</t>
+  </si>
+  <si>
+    <t>In situ Hybridization</t>
+  </si>
+  <si>
+    <t>In vitro Selection</t>
+  </si>
+  <si>
+    <t>Isolated Vessel Assay</t>
+  </si>
+  <si>
+    <t>Macrophage Polarization Assay</t>
+  </si>
+  <si>
+    <t>Mechanical Testing</t>
+  </si>
+  <si>
+    <t>Microfabricated Sandwiching Assay</t>
+  </si>
+  <si>
+    <t>Nuclear Magnetic Resonance</t>
+  </si>
+  <si>
+    <t>Optical Tweezers</t>
+  </si>
+  <si>
+    <t>Proximity Ligation Assay</t>
+  </si>
+  <si>
+    <t>Scanning Angle Interference Microscopy</t>
+  </si>
+  <si>
+    <t>Second-Harmonic Imaging Microscopy</t>
+  </si>
+  <si>
+    <t>Transwell Assay</t>
+  </si>
+  <si>
+    <t>Fallopian Tubes</t>
+  </si>
+  <si>
+    <t>Colon Carcinoma</t>
+  </si>
+  <si>
+    <t>Esophageal Carcinoma</t>
+  </si>
+  <si>
+    <t>Lung Carcinoma</t>
+  </si>
+  <si>
+    <t>Ovarian Serous Adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Pancreatic Ductal Adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Serous Tubal Intraepithelial Carcinoma</t>
   </si>
 </sst>
 </file>
@@ -2334,10 +2397,10 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>20</v>
@@ -2360,23 +2423,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{5665570D-4078-A640-B6DB-74F3B4D6739D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{B9353397-5079-5A41-8CEF-8C12DF50F59B}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$272:$B$405</xm:f>
-          </x14:formula1>
-          <xm:sqref>AA2:AA1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{9BD52FD9-8647-4742-9564-40E730A8A1D7}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$2:$B$144</xm:f>
+            <xm:f>standard_terms!$B$2:$B$163</xm:f>
           </x14:formula1>
           <xm:sqref>Y2:Y1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{954816C5-4C70-2145-8495-033359861269}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{14E13CDE-F42F-AC40-B626-12CF42414174}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$145:$B$271</xm:f>
+            <xm:f>standard_terms!$B$299:$B$434</xm:f>
           </x14:formula1>
           <xm:sqref>Z2:Z1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{A3CA0001-A444-BA48-AD15-A4877E31521D}">
+          <x14:formula1>
+            <xm:f>standard_terms!$B$164:$B$298</xm:f>
+          </x14:formula1>
+          <xm:sqref>AA2:AA1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2625,7 +2688,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C405"/>
+  <dimension ref="A1:C434"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2638,13 +2701,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2653,40 +2716,40 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>54</v>
+      <c r="B3" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>55</v>
+      <c r="B4" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
+      <c r="B5" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -2694,109 +2757,109 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>456</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>58</v>
+      <c r="B7" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
+      <c r="B8" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>60</v>
+      <c r="B9" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>61</v>
+      <c r="B10" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>62</v>
+      <c r="B11" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>63</v>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>64</v>
+      <c r="B13" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
-        <v>65</v>
+      <c r="B14" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>66</v>
+      <c r="B15" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -2804,32 +2867,32 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>457</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
-        <v>68</v>
+      <c r="B17" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
-        <v>69</v>
+      <c r="B18" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -2837,87 +2900,87 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>458</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="s">
-        <v>71</v>
+      <c r="B20" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>72</v>
+      <c r="B21" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>73</v>
+      <c r="B22" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>74</v>
+      <c r="B23" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>75</v>
+      <c r="B24" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
-        <v>76</v>
+      <c r="B25" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
-        <v>77</v>
+      <c r="B26" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -2925,43 +2988,43 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" t="s">
-        <v>79</v>
+      <c r="B28" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="B29" t="s">
-        <v>80</v>
+      <c r="B29" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="B30" t="s">
-        <v>81</v>
+      <c r="B30" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -2969,131 +3032,131 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>460</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>22</v>
       </c>
-      <c r="B32" t="s">
-        <v>83</v>
+      <c r="B32" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" t="s">
-        <v>84</v>
+      <c r="B33" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>22</v>
       </c>
-      <c r="B34" t="s">
-        <v>85</v>
+      <c r="B34" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>22</v>
       </c>
-      <c r="B35" t="s">
-        <v>86</v>
+      <c r="B35" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>22</v>
       </c>
-      <c r="B36" t="s">
-        <v>87</v>
+      <c r="B36" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>22</v>
       </c>
-      <c r="B37" t="s">
-        <v>88</v>
+      <c r="B37" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>22</v>
       </c>
-      <c r="B38" t="s">
-        <v>89</v>
+      <c r="B38" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>22</v>
       </c>
-      <c r="B39" t="s">
-        <v>90</v>
+      <c r="B39" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>22</v>
       </c>
-      <c r="B40" t="s">
-        <v>91</v>
+      <c r="B40" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>22</v>
       </c>
-      <c r="B41" t="s">
-        <v>92</v>
+      <c r="B41" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>22</v>
       </c>
-      <c r="B42" t="s">
-        <v>93</v>
+      <c r="B42" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -3101,252 +3164,252 @@
         <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>22</v>
       </c>
-      <c r="B44" t="s">
-        <v>95</v>
+      <c r="B44" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>22</v>
       </c>
-      <c r="B45" t="s">
-        <v>96</v>
+      <c r="B45" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>22</v>
       </c>
-      <c r="B46" t="s">
-        <v>97</v>
+      <c r="B46" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>22</v>
       </c>
-      <c r="B47" t="s">
-        <v>98</v>
+      <c r="B47" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>22</v>
       </c>
-      <c r="B48" t="s">
-        <v>99</v>
+      <c r="B48" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>22</v>
       </c>
-      <c r="B49" t="s">
-        <v>100</v>
+      <c r="B49" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>22</v>
       </c>
-      <c r="B50" t="s">
-        <v>101</v>
+      <c r="B50" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>22</v>
       </c>
-      <c r="B51" t="s">
-        <v>102</v>
+      <c r="B51" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>22</v>
       </c>
-      <c r="B52" t="s">
-        <v>103</v>
+      <c r="B52" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>22</v>
       </c>
-      <c r="B53" t="s">
-        <v>104</v>
+      <c r="B53" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>22</v>
       </c>
-      <c r="B54" t="s">
-        <v>105</v>
+      <c r="B54" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>22</v>
       </c>
-      <c r="B55" t="s">
-        <v>106</v>
+      <c r="B55" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>22</v>
       </c>
-      <c r="B56" t="s">
-        <v>107</v>
+      <c r="B56" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>22</v>
       </c>
-      <c r="B57" t="s">
-        <v>108</v>
+      <c r="B57" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="C57" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>22</v>
       </c>
-      <c r="B58" t="s">
-        <v>109</v>
+      <c r="B58" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>22</v>
       </c>
-      <c r="B59" t="s">
-        <v>110</v>
+      <c r="B59" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C59" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>22</v>
       </c>
-      <c r="B60" t="s">
-        <v>111</v>
+      <c r="B60" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>22</v>
       </c>
-      <c r="B61" t="s">
-        <v>112</v>
+      <c r="B61" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>22</v>
       </c>
-      <c r="B62" t="s">
-        <v>113</v>
+      <c r="B62" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="C62" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>22</v>
       </c>
-      <c r="B63" t="s">
-        <v>114</v>
+      <c r="B63" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>22</v>
       </c>
-      <c r="B64" t="s">
-        <v>115</v>
+      <c r="B64" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>22</v>
       </c>
-      <c r="B65" t="s">
-        <v>116</v>
+      <c r="B65" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C65" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -3354,65 +3417,65 @@
         <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>463</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>22</v>
       </c>
-      <c r="B67" t="s">
-        <v>118</v>
+      <c r="B67" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>22</v>
       </c>
-      <c r="B68" t="s">
-        <v>119</v>
+      <c r="B68" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C68" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>22</v>
       </c>
-      <c r="B69" t="s">
-        <v>120</v>
+      <c r="B69" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C69" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>22</v>
       </c>
-      <c r="B70" t="s">
-        <v>121</v>
+      <c r="B70" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="C70" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>22</v>
       </c>
-      <c r="B71" t="s">
-        <v>122</v>
+      <c r="B71" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="C71" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -3420,21 +3483,21 @@
         <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>464</v>
       </c>
       <c r="C72" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>22</v>
       </c>
-      <c r="B73" t="s">
-        <v>124</v>
+      <c r="B73" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C73" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -3442,32 +3505,32 @@
         <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>22</v>
       </c>
-      <c r="B75" t="s">
-        <v>126</v>
+      <c r="B75" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>22</v>
       </c>
-      <c r="B76" t="s">
-        <v>127</v>
+      <c r="B76" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C76" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -3475,43 +3538,43 @@
         <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C77" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>22</v>
       </c>
-      <c r="B78" t="s">
-        <v>129</v>
+      <c r="B78" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C78" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>22</v>
       </c>
-      <c r="B79" t="s">
-        <v>130</v>
+      <c r="B79" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="C79" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>22</v>
       </c>
-      <c r="B80" t="s">
-        <v>131</v>
+      <c r="B80" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="C80" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -3519,43 +3582,43 @@
         <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>465</v>
       </c>
       <c r="C81" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>22</v>
       </c>
-      <c r="B82" t="s">
-        <v>133</v>
+      <c r="B82" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C82" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>22</v>
       </c>
-      <c r="B83" t="s">
-        <v>134</v>
+      <c r="B83" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C83" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>22</v>
       </c>
-      <c r="B84" t="s">
-        <v>135</v>
+      <c r="B84" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -3563,10 +3626,10 @@
         <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>136</v>
+        <v>466</v>
       </c>
       <c r="C85" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -3574,186 +3637,186 @@
         <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>137</v>
+        <v>466</v>
       </c>
       <c r="C86" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>22</v>
       </c>
-      <c r="B87" t="s">
-        <v>138</v>
+      <c r="B87" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>22</v>
       </c>
-      <c r="B88" t="s">
-        <v>139</v>
+      <c r="B88" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="C88" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>22</v>
       </c>
-      <c r="B89" t="s">
-        <v>140</v>
+      <c r="B89" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>22</v>
       </c>
-      <c r="B90" t="s">
-        <v>141</v>
+      <c r="B90" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="C90" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>22</v>
       </c>
-      <c r="B91" t="s">
-        <v>142</v>
+      <c r="B91" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C91" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>22</v>
       </c>
-      <c r="B92" t="s">
-        <v>143</v>
+      <c r="B92" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="C92" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>22</v>
       </c>
-      <c r="B93" t="s">
-        <v>144</v>
+      <c r="B93" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C93" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>22</v>
       </c>
-      <c r="B94" t="s">
-        <v>145</v>
+      <c r="B94" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>22</v>
       </c>
-      <c r="B95" t="s">
-        <v>146</v>
+      <c r="B95" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="C95" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>22</v>
       </c>
-      <c r="B96" t="s">
-        <v>147</v>
+      <c r="B96" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="C96" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>22</v>
       </c>
-      <c r="B97" t="s">
-        <v>148</v>
+      <c r="B97" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="C97" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>22</v>
       </c>
-      <c r="B98" t="s">
-        <v>149</v>
+      <c r="B98" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="C98" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>22</v>
       </c>
-      <c r="B99" t="s">
-        <v>150</v>
+      <c r="B99" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="C99" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>22</v>
       </c>
-      <c r="B100" t="s">
-        <v>151</v>
+      <c r="B100" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C100" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>22</v>
       </c>
-      <c r="B101" t="s">
-        <v>152</v>
+      <c r="B101" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="C101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>22</v>
       </c>
-      <c r="B102" t="s">
-        <v>153</v>
+      <c r="B102" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="C102" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
@@ -3761,10 +3824,10 @@
         <v>22</v>
       </c>
       <c r="B103" t="s">
-        <v>154</v>
+        <v>467</v>
       </c>
       <c r="C103" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
@@ -3772,142 +3835,142 @@
         <v>22</v>
       </c>
       <c r="B104" t="s">
-        <v>155</v>
+        <v>468</v>
       </c>
       <c r="C104" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>22</v>
       </c>
-      <c r="B105" t="s">
-        <v>156</v>
+      <c r="B105" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="C105" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>22</v>
       </c>
-      <c r="B106" t="s">
-        <v>157</v>
+      <c r="B106" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="C106" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>22</v>
       </c>
-      <c r="B107" t="s">
-        <v>158</v>
+      <c r="B107" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C107" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>22</v>
       </c>
-      <c r="B108" t="s">
-        <v>159</v>
+      <c r="B108" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C108" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>22</v>
       </c>
-      <c r="B109" t="s">
-        <v>160</v>
+      <c r="B109" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="C109" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>22</v>
       </c>
-      <c r="B110" t="s">
-        <v>161</v>
+      <c r="B110" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="C110" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>22</v>
       </c>
-      <c r="B111" t="s">
-        <v>162</v>
+      <c r="B111" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="C111" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>22</v>
       </c>
-      <c r="B112" t="s">
-        <v>163</v>
+      <c r="B112" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="C112" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>22</v>
       </c>
-      <c r="B113" t="s">
-        <v>164</v>
+      <c r="B113" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="C113" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>22</v>
       </c>
-      <c r="B114" t="s">
-        <v>165</v>
+      <c r="B114" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="C114" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>22</v>
       </c>
-      <c r="B115" t="s">
-        <v>166</v>
+      <c r="B115" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="C115" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>22</v>
       </c>
-      <c r="B116" t="s">
-        <v>167</v>
+      <c r="B116" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="C116" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
@@ -3915,54 +3978,54 @@
         <v>22</v>
       </c>
       <c r="B117" t="s">
-        <v>168</v>
+        <v>469</v>
       </c>
       <c r="C117" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>22</v>
       </c>
-      <c r="B118" t="s">
-        <v>169</v>
+      <c r="B118" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="C118" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>22</v>
       </c>
-      <c r="B119" t="s">
-        <v>170</v>
+      <c r="B119" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C119" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>22</v>
       </c>
-      <c r="B120" t="s">
-        <v>171</v>
+      <c r="B120" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="C120" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>22</v>
       </c>
-      <c r="B121" t="s">
-        <v>172</v>
+      <c r="B121" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="C121" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
@@ -3970,76 +4033,76 @@
         <v>22</v>
       </c>
       <c r="B122" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C122" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>22</v>
       </c>
-      <c r="B123" t="s">
-        <v>174</v>
+      <c r="B123" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="C123" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>22</v>
       </c>
-      <c r="B124" t="s">
-        <v>175</v>
+      <c r="B124" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="C124" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>22</v>
       </c>
-      <c r="B125" t="s">
-        <v>176</v>
+      <c r="B125" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="C125" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>22</v>
       </c>
-      <c r="B126" t="s">
-        <v>177</v>
+      <c r="B126" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="C126" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>22</v>
       </c>
-      <c r="B127" t="s">
-        <v>178</v>
+      <c r="B127" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="C127" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>22</v>
       </c>
-      <c r="B128" t="s">
-        <v>179</v>
+      <c r="B128" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="C128" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
@@ -4047,1578 +4110,1580 @@
         <v>22</v>
       </c>
       <c r="B129" t="s">
-        <v>180</v>
+        <v>471</v>
       </c>
       <c r="C129" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>22</v>
       </c>
-      <c r="B130" t="s">
-        <v>181</v>
+      <c r="B130" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="C130" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>22</v>
       </c>
-      <c r="B131" t="s">
-        <v>182</v>
+      <c r="B131" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C131" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>22</v>
       </c>
-      <c r="B132" t="s">
-        <v>183</v>
+      <c r="B132" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C132" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>22</v>
       </c>
-      <c r="B133" t="s">
-        <v>184</v>
+      <c r="B133" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C133" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>22</v>
       </c>
-      <c r="B134" t="s">
-        <v>185</v>
+      <c r="B134" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C134" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>22</v>
       </c>
-      <c r="B135" t="s">
-        <v>186</v>
+      <c r="B135" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="C135" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>22</v>
       </c>
-      <c r="B136" t="s">
-        <v>187</v>
+      <c r="B136" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C136" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>22</v>
       </c>
-      <c r="B137" t="s">
-        <v>188</v>
+      <c r="B137" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C137" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>22</v>
       </c>
-      <c r="B138" t="s">
-        <v>189</v>
+      <c r="B138" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="C138" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>22</v>
       </c>
-      <c r="B139" t="s">
-        <v>190</v>
+      <c r="B139" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="C139" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>22</v>
       </c>
-      <c r="B140" t="s">
-        <v>191</v>
+      <c r="B140" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="C140" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>22</v>
       </c>
-      <c r="B141" t="s">
-        <v>192</v>
+      <c r="B141" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="C141" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>22</v>
       </c>
-      <c r="B142" t="s">
-        <v>193</v>
+      <c r="B142" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="C142" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>22</v>
       </c>
-      <c r="B143" t="s">
-        <v>194</v>
+      <c r="B143" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="C143" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>22</v>
       </c>
-      <c r="B144" t="s">
-        <v>195</v>
+      <c r="B144" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="C144" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>50</v>
-      </c>
-      <c r="B145" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="C145" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>50</v>
-      </c>
-      <c r="B146" t="s">
-        <v>139</v>
+        <v>22</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="C146" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>50</v>
-      </c>
-      <c r="B147" t="s">
-        <v>202</v>
+        <v>22</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C147" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>50</v>
-      </c>
-      <c r="B148" t="s">
-        <v>203</v>
+        <v>22</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="C148" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>50</v>
-      </c>
-      <c r="B149" t="s">
-        <v>204</v>
+        <v>22</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="C149" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>50</v>
-      </c>
-      <c r="B150" t="s">
-        <v>205</v>
+        <v>22</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="C150" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>50</v>
-      </c>
-      <c r="B151" t="s">
-        <v>206</v>
+        <v>22</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="C151" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>50</v>
-      </c>
-      <c r="B152" t="s">
-        <v>207</v>
+        <v>22</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="C152" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B153" t="s">
-        <v>208</v>
+        <v>472</v>
       </c>
       <c r="C153" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>50</v>
-      </c>
-      <c r="B154" t="s">
-        <v>209</v>
+        <v>22</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="C154" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>50</v>
-      </c>
-      <c r="B155" t="s">
-        <v>210</v>
+        <v>22</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C155" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>50</v>
-      </c>
-      <c r="B156" t="s">
-        <v>211</v>
+        <v>22</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="C156" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>50</v>
-      </c>
-      <c r="B157" t="s">
-        <v>212</v>
+        <v>22</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="C157" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>50</v>
-      </c>
-      <c r="B158" t="s">
-        <v>213</v>
+        <v>22</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="C158" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>50</v>
-      </c>
-      <c r="B159" t="s">
-        <v>214</v>
+        <v>22</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="C159" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>50</v>
-      </c>
-      <c r="B160" t="s">
-        <v>215</v>
+        <v>22</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="C160" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>50</v>
-      </c>
-      <c r="B161" t="s">
-        <v>216</v>
+        <v>22</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="C161" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>50</v>
-      </c>
-      <c r="B162" t="s">
-        <v>217</v>
+        <v>22</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="C162" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>50</v>
-      </c>
-      <c r="B163" t="s">
-        <v>218</v>
+        <v>22</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="C163" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>50</v>
-      </c>
-      <c r="B164" t="s">
-        <v>457</v>
+        <v>52</v>
       </c>
       <c r="C164" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B165" t="s">
-        <v>219</v>
+        <v>322</v>
       </c>
       <c r="C165" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B166" t="s">
-        <v>220</v>
+        <v>323</v>
       </c>
       <c r="C166" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B167" t="s">
-        <v>221</v>
+        <v>324</v>
       </c>
       <c r="C167" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B168" t="s">
-        <v>222</v>
+        <v>325</v>
       </c>
       <c r="C168" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B169" t="s">
-        <v>223</v>
+        <v>326</v>
       </c>
       <c r="C169" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B170" t="s">
-        <v>224</v>
+        <v>327</v>
       </c>
       <c r="C170" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B171" t="s">
-        <v>225</v>
+        <v>328</v>
       </c>
       <c r="C171" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B172" t="s">
-        <v>226</v>
+        <v>329</v>
       </c>
       <c r="C172" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B173" t="s">
-        <v>227</v>
+        <v>330</v>
       </c>
       <c r="C173" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B174" t="s">
-        <v>228</v>
+        <v>331</v>
       </c>
       <c r="C174" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B175" t="s">
-        <v>229</v>
+        <v>332</v>
       </c>
       <c r="C175" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B176" t="s">
-        <v>230</v>
+        <v>333</v>
       </c>
       <c r="C176" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B177" t="s">
-        <v>231</v>
+        <v>334</v>
       </c>
       <c r="C177" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B178" t="s">
-        <v>232</v>
+        <v>335</v>
       </c>
       <c r="C178" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B179" t="s">
-        <v>233</v>
+        <v>336</v>
       </c>
       <c r="C179" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B180" t="s">
-        <v>234</v>
+        <v>337</v>
       </c>
       <c r="C180" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B181" t="s">
-        <v>235</v>
+        <v>338</v>
       </c>
       <c r="C181" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>236</v>
+        <v>339</v>
       </c>
       <c r="C182" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B183" t="s">
-        <v>237</v>
+        <v>340</v>
       </c>
       <c r="C183" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B184" t="s">
-        <v>238</v>
+        <v>341</v>
       </c>
       <c r="C184" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B185" t="s">
-        <v>239</v>
+        <v>342</v>
       </c>
       <c r="C185" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B186" t="s">
-        <v>240</v>
+        <v>343</v>
       </c>
       <c r="C186" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B187" t="s">
-        <v>241</v>
+        <v>344</v>
       </c>
       <c r="C187" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B188" t="s">
-        <v>242</v>
+        <v>345</v>
       </c>
       <c r="C188" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B189" t="s">
-        <v>243</v>
+        <v>346</v>
       </c>
       <c r="C189" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B190" t="s">
-        <v>244</v>
+        <v>347</v>
       </c>
       <c r="C190" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B191" t="s">
-        <v>245</v>
+        <v>348</v>
       </c>
       <c r="C191" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B192" t="s">
-        <v>246</v>
+        <v>349</v>
       </c>
       <c r="C192" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B193" t="s">
-        <v>247</v>
+        <v>350</v>
       </c>
       <c r="C193" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B194" t="s">
-        <v>248</v>
+        <v>351</v>
       </c>
       <c r="C194" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B195" t="s">
-        <v>249</v>
+        <v>352</v>
       </c>
       <c r="C195" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B196" t="s">
-        <v>250</v>
+        <v>353</v>
       </c>
       <c r="C196" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B197" t="s">
-        <v>251</v>
+        <v>354</v>
       </c>
       <c r="C197" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B198" t="s">
-        <v>252</v>
+        <v>355</v>
       </c>
       <c r="C198" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B199" t="s">
-        <v>253</v>
+        <v>356</v>
       </c>
       <c r="C199" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B200" t="s">
-        <v>254</v>
+        <v>357</v>
       </c>
       <c r="C200" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B201" t="s">
-        <v>255</v>
+        <v>358</v>
       </c>
       <c r="C201" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B202" t="s">
-        <v>458</v>
+        <v>359</v>
       </c>
       <c r="C202" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B203" t="s">
-        <v>256</v>
+        <v>360</v>
       </c>
       <c r="C203" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B204" t="s">
-        <v>257</v>
+        <v>361</v>
       </c>
       <c r="C204" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B205" t="s">
-        <v>258</v>
+        <v>362</v>
       </c>
       <c r="C205" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B206" t="s">
-        <v>259</v>
+        <v>473</v>
       </c>
       <c r="C206" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B207" t="s">
-        <v>260</v>
+        <v>363</v>
       </c>
       <c r="C207" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B208" t="s">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="C208" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B209" t="s">
-        <v>262</v>
+        <v>365</v>
       </c>
       <c r="C209" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B210" t="s">
-        <v>263</v>
+        <v>366</v>
       </c>
       <c r="C210" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B211" t="s">
-        <v>264</v>
+        <v>367</v>
       </c>
       <c r="C211" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B212" t="s">
-        <v>265</v>
+        <v>368</v>
       </c>
       <c r="C212" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B213" t="s">
-        <v>266</v>
+        <v>369</v>
       </c>
       <c r="C213" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B214" t="s">
-        <v>267</v>
+        <v>370</v>
       </c>
       <c r="C214" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B215" t="s">
-        <v>268</v>
+        <v>371</v>
       </c>
       <c r="C215" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B216" t="s">
-        <v>269</v>
+        <v>372</v>
       </c>
       <c r="C216" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B217" t="s">
-        <v>270</v>
+        <v>373</v>
       </c>
       <c r="C217" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B218" t="s">
-        <v>271</v>
+        <v>374</v>
       </c>
       <c r="C218" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B219" t="s">
-        <v>272</v>
+        <v>375</v>
       </c>
       <c r="C219" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B220" t="s">
-        <v>273</v>
+        <v>376</v>
       </c>
       <c r="C220" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B221" t="s">
-        <v>274</v>
+        <v>377</v>
       </c>
       <c r="C221" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B222" t="s">
-        <v>275</v>
+        <v>378</v>
       </c>
       <c r="C222" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B223" t="s">
-        <v>276</v>
+        <v>379</v>
       </c>
       <c r="C223" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B224" t="s">
-        <v>277</v>
+        <v>380</v>
       </c>
       <c r="C224" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B225" t="s">
-        <v>278</v>
+        <v>381</v>
       </c>
       <c r="C225" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B226" t="s">
-        <v>279</v>
+        <v>382</v>
       </c>
       <c r="C226" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B227" t="s">
-        <v>280</v>
+        <v>383</v>
       </c>
       <c r="C227" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B228" t="s">
-        <v>281</v>
+        <v>384</v>
       </c>
       <c r="C228" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B229" t="s">
-        <v>282</v>
+        <v>385</v>
       </c>
       <c r="C229" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B230" t="s">
-        <v>283</v>
+        <v>386</v>
       </c>
       <c r="C230" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B231" t="s">
-        <v>284</v>
+        <v>387</v>
       </c>
       <c r="C231" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B232" t="s">
-        <v>285</v>
+        <v>388</v>
       </c>
       <c r="C232" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B233" t="s">
-        <v>286</v>
+        <v>389</v>
       </c>
       <c r="C233" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B234" t="s">
-        <v>287</v>
+        <v>390</v>
       </c>
       <c r="C234" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B235" t="s">
-        <v>288</v>
+        <v>391</v>
       </c>
       <c r="C235" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B236" t="s">
-        <v>289</v>
+        <v>392</v>
       </c>
       <c r="C236" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B237" t="s">
-        <v>290</v>
+        <v>393</v>
       </c>
       <c r="C237" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B238" t="s">
-        <v>291</v>
+        <v>394</v>
       </c>
       <c r="C238" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B239" t="s">
-        <v>292</v>
+        <v>395</v>
       </c>
       <c r="C239" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B240" t="s">
-        <v>293</v>
+        <v>396</v>
       </c>
       <c r="C240" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B241" t="s">
-        <v>294</v>
+        <v>397</v>
       </c>
       <c r="C241" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B242" t="s">
-        <v>295</v>
+        <v>398</v>
       </c>
       <c r="C242" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B243" t="s">
-        <v>296</v>
+        <v>399</v>
       </c>
       <c r="C243" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B244" t="s">
-        <v>297</v>
+        <v>400</v>
       </c>
       <c r="C244" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B245" t="s">
-        <v>298</v>
+        <v>401</v>
       </c>
       <c r="C245" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>299</v>
+        <v>402</v>
       </c>
       <c r="C246" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B247" t="s">
-        <v>300</v>
+        <v>403</v>
       </c>
       <c r="C247" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B248" t="s">
-        <v>301</v>
+        <v>404</v>
       </c>
       <c r="C248" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B249" t="s">
-        <v>302</v>
+        <v>405</v>
       </c>
       <c r="C249" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B250" t="s">
-        <v>303</v>
+        <v>406</v>
       </c>
       <c r="C250" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B251" t="s">
-        <v>304</v>
+        <v>407</v>
       </c>
       <c r="C251" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B252" t="s">
-        <v>305</v>
+        <v>408</v>
       </c>
       <c r="C252" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B253" t="s">
-        <v>306</v>
+        <v>409</v>
       </c>
       <c r="C253" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B254" t="s">
-        <v>307</v>
+        <v>410</v>
       </c>
       <c r="C254" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B255" t="s">
-        <v>308</v>
+        <v>411</v>
       </c>
       <c r="C255" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B256" t="s">
-        <v>309</v>
+        <v>412</v>
       </c>
       <c r="C256" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B257" t="s">
-        <v>310</v>
+        <v>413</v>
       </c>
       <c r="C257" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B258" t="s">
-        <v>311</v>
+        <v>414</v>
       </c>
       <c r="C258" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B259" t="s">
-        <v>312</v>
+        <v>415</v>
       </c>
       <c r="C259" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B260" t="s">
-        <v>313</v>
+        <v>416</v>
       </c>
       <c r="C260" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B261" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="C261" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B262" t="s">
-        <v>315</v>
+        <v>418</v>
       </c>
       <c r="C262" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B263" t="s">
-        <v>316</v>
+        <v>419</v>
       </c>
       <c r="C263" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B264" t="s">
-        <v>317</v>
+        <v>420</v>
       </c>
       <c r="C264" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B265" t="s">
-        <v>318</v>
+        <v>421</v>
       </c>
       <c r="C265" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B266" t="s">
-        <v>319</v>
+        <v>422</v>
       </c>
       <c r="C266" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B267" t="s">
-        <v>320</v>
+        <v>423</v>
       </c>
       <c r="C267" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B268" t="s">
-        <v>321</v>
+        <v>424</v>
       </c>
       <c r="C268" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B269" t="s">
-        <v>322</v>
+        <v>425</v>
       </c>
       <c r="C269" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B270" t="s">
-        <v>323</v>
+        <v>426</v>
       </c>
       <c r="C270" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B271" t="s">
-        <v>324</v>
+        <v>427</v>
       </c>
       <c r="C271" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>52</v>
       </c>
+      <c r="B272" t="s">
+        <v>428</v>
+      </c>
       <c r="C272" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.15">
@@ -5626,10 +5691,10 @@
         <v>52</v>
       </c>
       <c r="B273" t="s">
-        <v>325</v>
+        <v>429</v>
       </c>
       <c r="C273" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
@@ -5637,10 +5702,10 @@
         <v>52</v>
       </c>
       <c r="B274" t="s">
-        <v>326</v>
+        <v>430</v>
       </c>
       <c r="C274" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.15">
@@ -5648,10 +5713,10 @@
         <v>52</v>
       </c>
       <c r="B275" t="s">
-        <v>327</v>
+        <v>431</v>
       </c>
       <c r="C275" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.15">
@@ -5659,10 +5724,10 @@
         <v>52</v>
       </c>
       <c r="B276" t="s">
-        <v>328</v>
+        <v>432</v>
       </c>
       <c r="C276" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.15">
@@ -5670,10 +5735,10 @@
         <v>52</v>
       </c>
       <c r="B277" t="s">
-        <v>329</v>
+        <v>433</v>
       </c>
       <c r="C277" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.15">
@@ -5681,10 +5746,10 @@
         <v>52</v>
       </c>
       <c r="B278" t="s">
-        <v>330</v>
+        <v>434</v>
       </c>
       <c r="C278" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.15">
@@ -5692,10 +5757,10 @@
         <v>52</v>
       </c>
       <c r="B279" t="s">
-        <v>331</v>
+        <v>435</v>
       </c>
       <c r="C279" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.15">
@@ -5703,10 +5768,10 @@
         <v>52</v>
       </c>
       <c r="B280" t="s">
-        <v>332</v>
+        <v>436</v>
       </c>
       <c r="C280" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.15">
@@ -5714,10 +5779,10 @@
         <v>52</v>
       </c>
       <c r="B281" t="s">
-        <v>333</v>
+        <v>437</v>
       </c>
       <c r="C281" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
@@ -5725,10 +5790,10 @@
         <v>52</v>
       </c>
       <c r="B282" t="s">
-        <v>334</v>
+        <v>438</v>
       </c>
       <c r="C282" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
@@ -5736,10 +5801,10 @@
         <v>52</v>
       </c>
       <c r="B283" t="s">
-        <v>335</v>
+        <v>439</v>
       </c>
       <c r="C283" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.15">
@@ -5747,10 +5812,10 @@
         <v>52</v>
       </c>
       <c r="B284" t="s">
-        <v>336</v>
+        <v>440</v>
       </c>
       <c r="C284" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.15">
@@ -5758,10 +5823,10 @@
         <v>52</v>
       </c>
       <c r="B285" t="s">
-        <v>337</v>
+        <v>441</v>
       </c>
       <c r="C285" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.15">
@@ -5769,10 +5834,10 @@
         <v>52</v>
       </c>
       <c r="B286" t="s">
-        <v>338</v>
+        <v>442</v>
       </c>
       <c r="C286" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.15">
@@ -5780,10 +5845,10 @@
         <v>52</v>
       </c>
       <c r="B287" t="s">
-        <v>339</v>
+        <v>443</v>
       </c>
       <c r="C287" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.15">
@@ -5791,10 +5856,10 @@
         <v>52</v>
       </c>
       <c r="B288" t="s">
-        <v>340</v>
+        <v>444</v>
       </c>
       <c r="C288" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.15">
@@ -5802,10 +5867,10 @@
         <v>52</v>
       </c>
       <c r="B289" t="s">
-        <v>341</v>
+        <v>445</v>
       </c>
       <c r="C289" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.15">
@@ -5813,10 +5878,10 @@
         <v>52</v>
       </c>
       <c r="B290" t="s">
-        <v>342</v>
+        <v>446</v>
       </c>
       <c r="C290" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.15">
@@ -5824,10 +5889,10 @@
         <v>52</v>
       </c>
       <c r="B291" t="s">
-        <v>343</v>
+        <v>183</v>
       </c>
       <c r="C291" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
@@ -5835,10 +5900,10 @@
         <v>52</v>
       </c>
       <c r="B292" t="s">
-        <v>344</v>
+        <v>447</v>
       </c>
       <c r="C292" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
@@ -5846,10 +5911,10 @@
         <v>52</v>
       </c>
       <c r="B293" t="s">
-        <v>345</v>
+        <v>448</v>
       </c>
       <c r="C293" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
@@ -5857,10 +5922,10 @@
         <v>52</v>
       </c>
       <c r="B294" t="s">
-        <v>346</v>
+        <v>449</v>
       </c>
       <c r="C294" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.15">
@@ -5868,10 +5933,10 @@
         <v>52</v>
       </c>
       <c r="B295" t="s">
-        <v>347</v>
+        <v>450</v>
       </c>
       <c r="C295" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.15">
@@ -5879,10 +5944,10 @@
         <v>52</v>
       </c>
       <c r="B296" t="s">
-        <v>348</v>
+        <v>451</v>
       </c>
       <c r="C296" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.15">
@@ -5890,10 +5955,10 @@
         <v>52</v>
       </c>
       <c r="B297" t="s">
-        <v>349</v>
+        <v>452</v>
       </c>
       <c r="C297" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.15">
@@ -5901,1187 +5966,1504 @@
         <v>52</v>
       </c>
       <c r="B298" t="s">
-        <v>350</v>
+        <v>453</v>
       </c>
       <c r="C298" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A299" t="s">
-        <v>52</v>
-      </c>
-      <c r="B299" t="s">
-        <v>351</v>
-      </c>
+      <c r="A299" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B299" s="4"/>
       <c r="C299" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B300" t="s">
-        <v>352</v>
+        <v>137</v>
       </c>
       <c r="C300" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B301" t="s">
-        <v>353</v>
+        <v>199</v>
       </c>
       <c r="C301" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B302" t="s">
-        <v>354</v>
+        <v>200</v>
       </c>
       <c r="C302" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B303" t="s">
-        <v>355</v>
+        <v>201</v>
       </c>
       <c r="C303" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B304" t="s">
-        <v>356</v>
+        <v>202</v>
       </c>
       <c r="C304" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B305" t="s">
-        <v>357</v>
+        <v>203</v>
       </c>
       <c r="C305" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B306" t="s">
-        <v>358</v>
+        <v>204</v>
       </c>
       <c r="C306" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B307" t="s">
-        <v>359</v>
+        <v>205</v>
       </c>
       <c r="C307" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B308" t="s">
-        <v>360</v>
+        <v>206</v>
       </c>
       <c r="C308" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B309" t="s">
-        <v>361</v>
+        <v>207</v>
       </c>
       <c r="C309" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B310" t="s">
-        <v>362</v>
+        <v>208</v>
       </c>
       <c r="C310" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B311" t="s">
-        <v>363</v>
+        <v>209</v>
       </c>
       <c r="C311" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B312" t="s">
-        <v>364</v>
+        <v>210</v>
       </c>
       <c r="C312" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B313" t="s">
-        <v>365</v>
+        <v>211</v>
       </c>
       <c r="C313" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B314" t="s">
-        <v>366</v>
+        <v>212</v>
       </c>
       <c r="C314" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B315" t="s">
-        <v>367</v>
+        <v>213</v>
       </c>
       <c r="C315" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B316" t="s">
-        <v>368</v>
+        <v>214</v>
       </c>
       <c r="C316" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B317" t="s">
-        <v>369</v>
+        <v>215</v>
       </c>
       <c r="C317" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B318" t="s">
-        <v>370</v>
+        <v>454</v>
       </c>
       <c r="C318" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B319" t="s">
-        <v>371</v>
+        <v>454</v>
       </c>
       <c r="C319" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B320" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="C320" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B321" t="s">
-        <v>373</v>
+        <v>217</v>
       </c>
       <c r="C321" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B322" t="s">
-        <v>374</v>
+        <v>218</v>
       </c>
       <c r="C322" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B323" t="s">
-        <v>375</v>
+        <v>219</v>
       </c>
       <c r="C323" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B324" t="s">
-        <v>376</v>
+        <v>220</v>
       </c>
       <c r="C324" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B325" t="s">
-        <v>377</v>
+        <v>221</v>
       </c>
       <c r="C325" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B326" t="s">
-        <v>378</v>
+        <v>222</v>
       </c>
       <c r="C326" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B327" t="s">
-        <v>379</v>
+        <v>223</v>
       </c>
       <c r="C327" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B328" t="s">
-        <v>380</v>
+        <v>224</v>
       </c>
       <c r="C328" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B329" t="s">
-        <v>381</v>
+        <v>225</v>
       </c>
       <c r="C329" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B330" t="s">
-        <v>382</v>
+        <v>226</v>
       </c>
       <c r="C330" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B331" t="s">
-        <v>383</v>
+        <v>227</v>
       </c>
       <c r="C331" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B332" t="s">
-        <v>384</v>
+        <v>228</v>
       </c>
       <c r="C332" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B333" t="s">
-        <v>385</v>
+        <v>229</v>
       </c>
       <c r="C333" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B334" t="s">
-        <v>386</v>
+        <v>230</v>
       </c>
       <c r="C334" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B335" t="s">
-        <v>387</v>
+        <v>231</v>
       </c>
       <c r="C335" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B336" t="s">
-        <v>388</v>
+        <v>232</v>
       </c>
       <c r="C336" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B337" t="s">
-        <v>389</v>
+        <v>233</v>
       </c>
       <c r="C337" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B338" t="s">
-        <v>390</v>
+        <v>234</v>
       </c>
       <c r="C338" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B339" t="s">
-        <v>391</v>
+        <v>235</v>
       </c>
       <c r="C339" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B340" t="s">
-        <v>392</v>
+        <v>236</v>
       </c>
       <c r="C340" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B341" t="s">
-        <v>393</v>
+        <v>237</v>
       </c>
       <c r="C341" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B342" t="s">
-        <v>394</v>
+        <v>474</v>
       </c>
       <c r="C342" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B343" t="s">
-        <v>395</v>
+        <v>238</v>
       </c>
       <c r="C343" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B344" t="s">
-        <v>396</v>
+        <v>239</v>
       </c>
       <c r="C344" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B345" t="s">
-        <v>397</v>
+        <v>240</v>
       </c>
       <c r="C345" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B346" t="s">
-        <v>398</v>
+        <v>241</v>
       </c>
       <c r="C346" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B347" t="s">
-        <v>399</v>
+        <v>242</v>
       </c>
       <c r="C347" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B348" t="s">
-        <v>400</v>
+        <v>243</v>
       </c>
       <c r="C348" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B349" t="s">
-        <v>401</v>
+        <v>244</v>
       </c>
       <c r="C349" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B350" t="s">
-        <v>402</v>
+        <v>245</v>
       </c>
       <c r="C350" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B351" t="s">
-        <v>403</v>
+        <v>246</v>
       </c>
       <c r="C351" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B352" t="s">
-        <v>404</v>
+        <v>475</v>
       </c>
       <c r="C352" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B353" t="s">
-        <v>405</v>
+        <v>247</v>
       </c>
       <c r="C353" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B354" t="s">
-        <v>406</v>
+        <v>248</v>
       </c>
       <c r="C354" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B355" t="s">
-        <v>407</v>
+        <v>249</v>
       </c>
       <c r="C355" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B356" t="s">
-        <v>408</v>
+        <v>250</v>
       </c>
       <c r="C356" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B357" t="s">
-        <v>409</v>
+        <v>251</v>
       </c>
       <c r="C357" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B358" t="s">
-        <v>410</v>
+        <v>252</v>
       </c>
       <c r="C358" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B359" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="C359" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B360" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="C360" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B361" t="s">
-        <v>413</v>
+        <v>253</v>
       </c>
       <c r="C361" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B362" t="s">
-        <v>414</v>
+        <v>254</v>
       </c>
       <c r="C362" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B363" t="s">
-        <v>415</v>
+        <v>255</v>
       </c>
       <c r="C363" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B364" t="s">
-        <v>416</v>
+        <v>256</v>
       </c>
       <c r="C364" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B365" t="s">
-        <v>417</v>
+        <v>257</v>
       </c>
       <c r="C365" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B366" t="s">
-        <v>418</v>
+        <v>258</v>
       </c>
       <c r="C366" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B367" t="s">
-        <v>419</v>
+        <v>259</v>
       </c>
       <c r="C367" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B368" t="s">
-        <v>420</v>
+        <v>260</v>
       </c>
       <c r="C368" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B369" t="s">
-        <v>421</v>
+        <v>261</v>
       </c>
       <c r="C369" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B370" t="s">
-        <v>422</v>
+        <v>262</v>
       </c>
       <c r="C370" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B371" t="s">
-        <v>423</v>
+        <v>263</v>
       </c>
       <c r="C371" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B372" t="s">
-        <v>424</v>
+        <v>264</v>
       </c>
       <c r="C372" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B373" t="s">
-        <v>425</v>
+        <v>265</v>
       </c>
       <c r="C373" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B374" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="C374" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B375" t="s">
-        <v>427</v>
+        <v>266</v>
       </c>
       <c r="C375" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B376" t="s">
-        <v>428</v>
+        <v>267</v>
       </c>
       <c r="C376" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B377" t="s">
-        <v>429</v>
+        <v>268</v>
       </c>
       <c r="C377" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B378" t="s">
-        <v>430</v>
+        <v>269</v>
       </c>
       <c r="C378" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B379" t="s">
-        <v>431</v>
+        <v>270</v>
       </c>
       <c r="C379" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B380" t="s">
-        <v>432</v>
+        <v>271</v>
       </c>
       <c r="C380" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B381" t="s">
-        <v>433</v>
+        <v>272</v>
       </c>
       <c r="C381" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B382" t="s">
-        <v>434</v>
+        <v>273</v>
       </c>
       <c r="C382" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B383" t="s">
-        <v>435</v>
+        <v>274</v>
       </c>
       <c r="C383" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B384" t="s">
-        <v>436</v>
+        <v>275</v>
       </c>
       <c r="C384" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B385" t="s">
-        <v>437</v>
+        <v>276</v>
       </c>
       <c r="C385" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B386" t="s">
-        <v>438</v>
+        <v>277</v>
       </c>
       <c r="C386" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B387" t="s">
-        <v>439</v>
+        <v>278</v>
       </c>
       <c r="C387" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B388" t="s">
-        <v>440</v>
+        <v>279</v>
       </c>
       <c r="C388" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B389" t="s">
-        <v>441</v>
+        <v>280</v>
       </c>
       <c r="C389" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B390" t="s">
-        <v>442</v>
+        <v>281</v>
       </c>
       <c r="C390" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B391" t="s">
-        <v>443</v>
+        <v>282</v>
       </c>
       <c r="C391" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B392" t="s">
-        <v>444</v>
+        <v>283</v>
       </c>
       <c r="C392" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B393" t="s">
-        <v>445</v>
+        <v>284</v>
       </c>
       <c r="C393" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B394" t="s">
-        <v>446</v>
+        <v>285</v>
       </c>
       <c r="C394" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B395" t="s">
-        <v>447</v>
+        <v>286</v>
       </c>
       <c r="C395" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B396" t="s">
-        <v>448</v>
+        <v>287</v>
       </c>
       <c r="C396" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B397" t="s">
-        <v>449</v>
+        <v>288</v>
       </c>
       <c r="C397" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B398" t="s">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="C398" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B399" t="s">
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="C399" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B400" t="s">
-        <v>451</v>
+        <v>291</v>
       </c>
       <c r="C400" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B401" t="s">
-        <v>452</v>
+        <v>292</v>
       </c>
       <c r="C401" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B402" t="s">
-        <v>453</v>
+        <v>293</v>
       </c>
       <c r="C402" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B403" t="s">
-        <v>454</v>
+        <v>294</v>
       </c>
       <c r="C403" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B404" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="C404" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B405" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C405" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A406" t="s">
+        <v>50</v>
+      </c>
+      <c r="B406" t="s">
+        <v>296</v>
+      </c>
+      <c r="C406" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A407" t="s">
+        <v>50</v>
+      </c>
+      <c r="B407" t="s">
+        <v>297</v>
+      </c>
+      <c r="C407" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A408" t="s">
+        <v>50</v>
+      </c>
+      <c r="B408" t="s">
+        <v>478</v>
+      </c>
+      <c r="C408" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A409" t="s">
+        <v>50</v>
+      </c>
+      <c r="B409" t="s">
+        <v>298</v>
+      </c>
+      <c r="C409" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A410" t="s">
+        <v>50</v>
+      </c>
+      <c r="B410" t="s">
+        <v>299</v>
+      </c>
+      <c r="C410" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A411" t="s">
+        <v>50</v>
+      </c>
+      <c r="B411" t="s">
+        <v>300</v>
+      </c>
+      <c r="C411" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A412" t="s">
+        <v>50</v>
+      </c>
+      <c r="B412" t="s">
+        <v>301</v>
+      </c>
+      <c r="C412" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A413" t="s">
+        <v>50</v>
+      </c>
+      <c r="B413" t="s">
+        <v>302</v>
+      </c>
+      <c r="C413" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A414" t="s">
+        <v>50</v>
+      </c>
+      <c r="B414" t="s">
+        <v>303</v>
+      </c>
+      <c r="C414" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A415" t="s">
+        <v>50</v>
+      </c>
+      <c r="B415" t="s">
+        <v>304</v>
+      </c>
+      <c r="C415" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A416" t="s">
+        <v>50</v>
+      </c>
+      <c r="B416" t="s">
+        <v>305</v>
+      </c>
+      <c r="C416" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A417" t="s">
+        <v>50</v>
+      </c>
+      <c r="B417" t="s">
+        <v>306</v>
+      </c>
+      <c r="C417" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A418" t="s">
+        <v>50</v>
+      </c>
+      <c r="B418" t="s">
+        <v>307</v>
+      </c>
+      <c r="C418" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A419" t="s">
+        <v>50</v>
+      </c>
+      <c r="B419" t="s">
+        <v>308</v>
+      </c>
+      <c r="C419" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A420" t="s">
+        <v>50</v>
+      </c>
+      <c r="B420" t="s">
+        <v>479</v>
+      </c>
+      <c r="C420" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A421" t="s">
+        <v>50</v>
+      </c>
+      <c r="B421" t="s">
+        <v>479</v>
+      </c>
+      <c r="C421" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A422" t="s">
+        <v>50</v>
+      </c>
+      <c r="B422" t="s">
+        <v>309</v>
+      </c>
+      <c r="C422" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A423" t="s">
+        <v>50</v>
+      </c>
+      <c r="B423" t="s">
+        <v>310</v>
+      </c>
+      <c r="C423" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A424" t="s">
+        <v>50</v>
+      </c>
+      <c r="B424" t="s">
+        <v>311</v>
+      </c>
+      <c r="C424" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A425" t="s">
+        <v>50</v>
+      </c>
+      <c r="B425" t="s">
+        <v>312</v>
+      </c>
+      <c r="C425" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A426" t="s">
+        <v>50</v>
+      </c>
+      <c r="B426" t="s">
+        <v>313</v>
+      </c>
+      <c r="C426" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A427" t="s">
+        <v>50</v>
+      </c>
+      <c r="B427" t="s">
+        <v>314</v>
+      </c>
+      <c r="C427" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A428" t="s">
+        <v>50</v>
+      </c>
+      <c r="B428" t="s">
+        <v>315</v>
+      </c>
+      <c r="C428" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A429" t="s">
+        <v>50</v>
+      </c>
+      <c r="B429" t="s">
+        <v>316</v>
+      </c>
+      <c r="C429" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A430" t="s">
+        <v>50</v>
+      </c>
+      <c r="B430" t="s">
+        <v>317</v>
+      </c>
+      <c r="C430" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A431" t="s">
+        <v>50</v>
+      </c>
+      <c r="B431" t="s">
+        <v>318</v>
+      </c>
+      <c r="C431" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A432" t="s">
+        <v>50</v>
+      </c>
+      <c r="B432" t="s">
+        <v>319</v>
+      </c>
+      <c r="C432" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A433" t="s">
+        <v>50</v>
+      </c>
+      <c r="B433" t="s">
+        <v>320</v>
+      </c>
+      <c r="C433" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A434" t="s">
+        <v>50</v>
+      </c>
+      <c r="B434" t="s">
+        <v>321</v>
+      </c>
+      <c r="C434" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/www/templates/publications_manifest.xlsx
+++ b/www/templates/publications_manifest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF81D16-B6A0-2F4A-A792-9408380002FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DE7FF9-5BC9-0344-9387-3A0947917553}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="460" windowWidth="24600" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="500" windowWidth="24600" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="manifest" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="standard_terms" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$C$405</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$C$406</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="535">
   <si>
     <t>doi</t>
   </si>
@@ -1475,6 +1475,171 @@
   </si>
   <si>
     <t>Serous Tubal Intraepithelial Carcinoma</t>
+  </si>
+  <si>
+    <t>Malignant Digestive System Neoplasm</t>
+  </si>
+  <si>
+    <t>Fibroepithelial Polyp</t>
+  </si>
+  <si>
+    <t>Malignant Neoplasm</t>
+  </si>
+  <si>
+    <t>Angiosarcoma</t>
+  </si>
+  <si>
+    <t>Cancer Stem Cells</t>
+  </si>
+  <si>
+    <t>ATP Bioluminescence Assay</t>
+  </si>
+  <si>
+    <t>Dye Endocytosis Assay</t>
+  </si>
+  <si>
+    <t>Synthetic Genetic Array</t>
+  </si>
+  <si>
+    <t>Competitive ELISA</t>
+  </si>
+  <si>
+    <t>Luminescent Cell Viability Assay</t>
+  </si>
+  <si>
+    <t>UV Photocrosslinking</t>
+  </si>
+  <si>
+    <t>Archer FusionPlex Assay</t>
+  </si>
+  <si>
+    <t>FAIRE-Seq</t>
+  </si>
+  <si>
+    <t>Next Generation Sequencing</t>
+  </si>
+  <si>
+    <t>Single Cell Cytokine Detection Chip Assay</t>
+  </si>
+  <si>
+    <t>Single Molecule Forster Resonance Energy Transfer</t>
+  </si>
+  <si>
+    <t>Non-Functioning Pituitary Gland Adenoma</t>
+  </si>
+  <si>
+    <t>Pituitary Gland</t>
+  </si>
+  <si>
+    <t>Palatine Tonsil</t>
+  </si>
+  <si>
+    <t>Hierarchical Loading Microwell Chip</t>
+  </si>
+  <si>
+    <t>Bladder Carcinoma</t>
+  </si>
+  <si>
+    <t>Cervical Carcinoma</t>
+  </si>
+  <si>
+    <t>Prostate Carcinoma</t>
+  </si>
+  <si>
+    <t>T-cell Receptor Sequencing</t>
+  </si>
+  <si>
+    <t>Transposon Insertion Sequencing</t>
+  </si>
+  <si>
+    <t>Chemotaxis Assay</t>
+  </si>
+  <si>
+    <t>Neutral Comet Assay</t>
+  </si>
+  <si>
+    <t>Alkaline Comet Assay</t>
+  </si>
+  <si>
+    <t>Magnetic Twisting Cytometry</t>
+  </si>
+  <si>
+    <t>Chromatin Immunoprecipitation</t>
+  </si>
+  <si>
+    <t>Droplet Digital PCR</t>
+  </si>
+  <si>
+    <t>Optical Emission Spectroscopy</t>
+  </si>
+  <si>
+    <t>Differential Scanning Fluorimetry</t>
+  </si>
+  <si>
+    <t>Cellular Thermal Shift Assay</t>
+  </si>
+  <si>
+    <t>Southern Blotting</t>
+  </si>
+  <si>
+    <t>Differential Interference Contrast Microscopy</t>
+  </si>
+  <si>
+    <t>Soft Tissue Sarcoma</t>
+  </si>
+  <si>
+    <t>Gallbladder Carcinoma</t>
+  </si>
+  <si>
+    <t>Ewing Sarcoma</t>
+  </si>
+  <si>
+    <t>Colorectal Carcinoma</t>
+  </si>
+  <si>
+    <t>Mesothelioma</t>
+  </si>
+  <si>
+    <t>Pituitary Gland Adenoma</t>
+  </si>
+  <si>
+    <t>Urothelial Carcinoma</t>
+  </si>
+  <si>
+    <t>Conventional Microscopy</t>
+  </si>
+  <si>
+    <t>Vibrational Spectroscopy</t>
+  </si>
+  <si>
+    <t>Atomic Absorption Spectroscopy</t>
+  </si>
+  <si>
+    <t>CAP-C</t>
+  </si>
+  <si>
+    <t>Focused Ion Beam Scanning Electron Microscopy</t>
+  </si>
+  <si>
+    <t>Single Nucleus RNA-Sequencing</t>
+  </si>
+  <si>
+    <t>HiChIP</t>
+  </si>
+  <si>
+    <t>Forster Resonance Energy Transfer</t>
+  </si>
+  <si>
+    <t>Gas Chromatography Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>Pancreatic Carcinoma</t>
+  </si>
+  <si>
+    <t>Cell Viability Assay</t>
+  </si>
+  <si>
+    <t>Must use controlled-vocabulary terms</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1782,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1797,6 +1962,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1958,7 +2129,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1966,6 +2137,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2408,42 +2580,18 @@
       <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="Y1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{B9353397-5079-5A41-8CEF-8C12DF50F59B}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$2:$B$163</xm:f>
-          </x14:formula1>
-          <xm:sqref>Y2:Y1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{14E13CDE-F42F-AC40-B626-12CF42414174}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$299:$B$434</xm:f>
-          </x14:formula1>
-          <xm:sqref>Z2:Z1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{A3CA0001-A444-BA48-AD15-A4877E31521D}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$164:$B$298</xm:f>
-          </x14:formula1>
-          <xm:sqref>AA2:AA1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2660,7 +2808,9 @@
       <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
@@ -2669,7 +2819,9 @@
       <c r="B23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
@@ -2678,7 +2830,9 @@
       <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>534</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -2688,7 +2842,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C434"/>
+  <dimension ref="A1:C480"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2767,8 +2921,8 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>56</v>
+      <c r="B7" t="s">
+        <v>507</v>
       </c>
       <c r="C7" t="s">
         <v>196</v>
@@ -2779,7 +2933,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>196</v>
@@ -2789,8 +2943,8 @@
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>58</v>
+      <c r="B9" t="s">
+        <v>491</v>
       </c>
       <c r="C9" t="s">
         <v>196</v>
@@ -2801,7 +2955,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>196</v>
@@ -2811,8 +2965,8 @@
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>60</v>
+      <c r="B11" t="s">
+        <v>525</v>
       </c>
       <c r="C11" t="s">
         <v>196</v>
@@ -2823,7 +2977,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>196</v>
@@ -2833,8 +2987,8 @@
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>62</v>
+      <c r="B13" t="s">
+        <v>485</v>
       </c>
       <c r="C13" t="s">
         <v>196</v>
@@ -2845,7 +2999,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>196</v>
@@ -2856,7 +3010,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>196</v>
@@ -2866,8 +3020,8 @@
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>457</v>
+      <c r="B16" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>196</v>
@@ -2878,7 +3032,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
         <v>196</v>
@@ -2889,7 +3043,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>196</v>
@@ -2900,7 +3054,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>458</v>
+        <v>526</v>
       </c>
       <c r="C19" t="s">
         <v>196</v>
@@ -2911,7 +3065,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
         <v>196</v>
@@ -2921,8 +3075,8 @@
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>68</v>
+      <c r="B21" t="s">
+        <v>457</v>
       </c>
       <c r="C21" t="s">
         <v>196</v>
@@ -2933,7 +3087,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
         <v>196</v>
@@ -2943,8 +3097,8 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>70</v>
+      <c r="B23" t="s">
+        <v>533</v>
       </c>
       <c r="C23" t="s">
         <v>196</v>
@@ -2954,8 +3108,8 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>71</v>
+      <c r="B24" t="s">
+        <v>513</v>
       </c>
       <c r="C24" t="s">
         <v>196</v>
@@ -2965,8 +3119,8 @@
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>72</v>
+      <c r="B25" t="s">
+        <v>505</v>
       </c>
       <c r="C25" t="s">
         <v>196</v>
@@ -2977,7 +3131,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
         <v>196</v>
@@ -2988,7 +3142,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C27" t="s">
         <v>196</v>
@@ -2999,7 +3153,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
         <v>196</v>
@@ -3009,8 +3163,8 @@
       <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>75</v>
+      <c r="B29" t="s">
+        <v>509</v>
       </c>
       <c r="C29" t="s">
         <v>196</v>
@@ -3021,7 +3175,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
         <v>196</v>
@@ -3032,7 +3186,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="C31" t="s">
         <v>196</v>
@@ -3043,7 +3197,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
         <v>196</v>
@@ -3054,7 +3208,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
         <v>196</v>
@@ -3065,7 +3219,7 @@
         <v>22</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
         <v>196</v>
@@ -3075,8 +3229,8 @@
       <c r="A35" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>80</v>
+      <c r="B35" t="s">
+        <v>523</v>
       </c>
       <c r="C35" t="s">
         <v>196</v>
@@ -3087,7 +3241,7 @@
         <v>22</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
         <v>196</v>
@@ -3098,7 +3252,7 @@
         <v>22</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
         <v>196</v>
@@ -3108,8 +3262,8 @@
       <c r="A38" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>83</v>
+      <c r="B38" t="s">
+        <v>459</v>
       </c>
       <c r="C38" t="s">
         <v>196</v>
@@ -3120,7 +3274,7 @@
         <v>22</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
         <v>196</v>
@@ -3130,8 +3284,8 @@
       <c r="A40" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>85</v>
+      <c r="B40" t="s">
+        <v>515</v>
       </c>
       <c r="C40" t="s">
         <v>196</v>
@@ -3141,8 +3295,8 @@
       <c r="A41" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>86</v>
+      <c r="B41" t="s">
+        <v>512</v>
       </c>
       <c r="C41" t="s">
         <v>196</v>
@@ -3153,7 +3307,7 @@
         <v>22</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
         <v>196</v>
@@ -3163,8 +3317,8 @@
       <c r="A43" t="s">
         <v>22</v>
       </c>
-      <c r="B43" t="s">
-        <v>87</v>
+      <c r="B43" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C43" t="s">
         <v>196</v>
@@ -3174,8 +3328,8 @@
       <c r="A44" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>88</v>
+      <c r="B44" t="s">
+        <v>510</v>
       </c>
       <c r="C44" t="s">
         <v>196</v>
@@ -3185,8 +3339,8 @@
       <c r="A45" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>89</v>
+      <c r="B45" t="s">
+        <v>486</v>
       </c>
       <c r="C45" t="s">
         <v>196</v>
@@ -3196,8 +3350,8 @@
       <c r="A46" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>90</v>
+      <c r="B46" t="s">
+        <v>460</v>
       </c>
       <c r="C46" t="s">
         <v>196</v>
@@ -3208,7 +3362,7 @@
         <v>22</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
         <v>196</v>
@@ -3219,7 +3373,7 @@
         <v>22</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
         <v>196</v>
@@ -3230,7 +3384,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
         <v>196</v>
@@ -3241,7 +3395,7 @@
         <v>22</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
         <v>196</v>
@@ -3251,8 +3405,8 @@
       <c r="A51" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>95</v>
+      <c r="B51" t="s">
+        <v>492</v>
       </c>
       <c r="C51" t="s">
         <v>196</v>
@@ -3263,7 +3417,7 @@
         <v>22</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
         <v>196</v>
@@ -3274,7 +3428,7 @@
         <v>22</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
         <v>196</v>
@@ -3285,7 +3439,7 @@
         <v>22</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
         <v>196</v>
@@ -3296,7 +3450,7 @@
         <v>22</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
         <v>196</v>
@@ -3307,7 +3461,7 @@
         <v>22</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
         <v>196</v>
@@ -3318,7 +3472,7 @@
         <v>22</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
         <v>196</v>
@@ -3329,7 +3483,7 @@
         <v>22</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
         <v>196</v>
@@ -3339,8 +3493,8 @@
       <c r="A59" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>103</v>
+      <c r="B59" t="s">
+        <v>527</v>
       </c>
       <c r="C59" t="s">
         <v>196</v>
@@ -3350,8 +3504,8 @@
       <c r="A60" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>104</v>
+      <c r="B60" t="s">
+        <v>530</v>
       </c>
       <c r="C60" t="s">
         <v>196</v>
@@ -3361,8 +3515,8 @@
       <c r="A61" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>461</v>
+      <c r="B61" t="s">
+        <v>531</v>
       </c>
       <c r="C61" t="s">
         <v>196</v>
@@ -3373,7 +3527,7 @@
         <v>22</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>462</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
         <v>196</v>
@@ -3384,7 +3538,7 @@
         <v>22</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
         <v>196</v>
@@ -3395,7 +3549,7 @@
         <v>22</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
         <v>196</v>
@@ -3406,7 +3560,7 @@
         <v>22</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s">
         <v>196</v>
@@ -3417,7 +3571,7 @@
         <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="C66" t="s">
         <v>196</v>
@@ -3427,8 +3581,8 @@
       <c r="A67" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>108</v>
+      <c r="B67" t="s">
+        <v>499</v>
       </c>
       <c r="C67" t="s">
         <v>196</v>
@@ -3439,7 +3593,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C68" t="s">
         <v>196</v>
@@ -3450,7 +3604,7 @@
         <v>22</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
         <v>196</v>
@@ -3461,7 +3615,7 @@
         <v>22</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C70" t="s">
         <v>196</v>
@@ -3472,7 +3626,7 @@
         <v>22</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C71" t="s">
         <v>196</v>
@@ -3482,8 +3636,8 @@
       <c r="A72" t="s">
         <v>22</v>
       </c>
-      <c r="B72" t="s">
-        <v>464</v>
+      <c r="B72" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C72" t="s">
         <v>196</v>
@@ -3494,7 +3648,7 @@
         <v>22</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C73" t="s">
         <v>196</v>
@@ -3504,8 +3658,8 @@
       <c r="A74" t="s">
         <v>22</v>
       </c>
-      <c r="B74" t="s">
-        <v>113</v>
+      <c r="B74" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="C74" t="s">
         <v>196</v>
@@ -3516,7 +3670,7 @@
         <v>22</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
         <v>196</v>
@@ -3527,7 +3681,7 @@
         <v>22</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
         <v>196</v>
@@ -3537,8 +3691,8 @@
       <c r="A77" t="s">
         <v>22</v>
       </c>
-      <c r="B77" t="s">
-        <v>115</v>
+      <c r="B77" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="C77" t="s">
         <v>196</v>
@@ -3549,7 +3703,7 @@
         <v>22</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C78" t="s">
         <v>196</v>
@@ -3560,7 +3714,7 @@
         <v>22</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C79" t="s">
         <v>196</v>
@@ -3571,7 +3725,7 @@
         <v>22</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C80" t="s">
         <v>196</v>
@@ -3581,8 +3735,8 @@
       <c r="A81" t="s">
         <v>22</v>
       </c>
-      <c r="B81" t="s">
-        <v>465</v>
+      <c r="B81" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="C81" t="s">
         <v>196</v>
@@ -3593,7 +3747,7 @@
         <v>22</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>119</v>
+        <v>462</v>
       </c>
       <c r="C82" t="s">
         <v>196</v>
@@ -3604,7 +3758,7 @@
         <v>22</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C83" t="s">
         <v>196</v>
@@ -3615,7 +3769,7 @@
         <v>22</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C84" t="s">
         <v>196</v>
@@ -3625,8 +3779,8 @@
       <c r="A85" t="s">
         <v>22</v>
       </c>
-      <c r="B85" t="s">
-        <v>466</v>
+      <c r="B85" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C85" t="s">
         <v>196</v>
@@ -3637,7 +3791,7 @@
         <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C86" t="s">
         <v>196</v>
@@ -3648,7 +3802,7 @@
         <v>22</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C87" t="s">
         <v>196</v>
@@ -3659,7 +3813,7 @@
         <v>22</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C88" t="s">
         <v>196</v>
@@ -3670,7 +3824,7 @@
         <v>22</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C89" t="s">
         <v>196</v>
@@ -3681,7 +3835,7 @@
         <v>22</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C90" t="s">
         <v>196</v>
@@ -3692,7 +3846,7 @@
         <v>22</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C91" t="s">
         <v>196</v>
@@ -3702,8 +3856,8 @@
       <c r="A92" t="s">
         <v>22</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>127</v>
+      <c r="B92" t="s">
+        <v>489</v>
       </c>
       <c r="C92" t="s">
         <v>196</v>
@@ -3713,8 +3867,8 @@
       <c r="A93" t="s">
         <v>22</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>128</v>
+      <c r="B93" t="s">
+        <v>464</v>
       </c>
       <c r="C93" t="s">
         <v>196</v>
@@ -3725,7 +3879,7 @@
         <v>22</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C94" t="s">
         <v>196</v>
@@ -3736,7 +3890,7 @@
         <v>22</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C95" t="s">
         <v>196</v>
@@ -3746,8 +3900,8 @@
       <c r="A96" t="s">
         <v>22</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>131</v>
+      <c r="B96" t="s">
+        <v>508</v>
       </c>
       <c r="C96" t="s">
         <v>196</v>
@@ -3758,7 +3912,7 @@
         <v>22</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C97" t="s">
         <v>196</v>
@@ -3769,7 +3923,7 @@
         <v>22</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C98" t="s">
         <v>196</v>
@@ -3780,7 +3934,7 @@
         <v>22</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C99" t="s">
         <v>196</v>
@@ -3791,7 +3945,7 @@
         <v>22</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C100" t="s">
         <v>196</v>
@@ -3801,8 +3955,8 @@
       <c r="A101" t="s">
         <v>22</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>136</v>
+      <c r="B101" t="s">
+        <v>465</v>
       </c>
       <c r="C101" t="s">
         <v>196</v>
@@ -3813,7 +3967,7 @@
         <v>22</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C102" t="s">
         <v>196</v>
@@ -3823,8 +3977,8 @@
       <c r="A103" t="s">
         <v>22</v>
       </c>
-      <c r="B103" t="s">
-        <v>467</v>
+      <c r="B103" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C103" t="s">
         <v>196</v>
@@ -3834,8 +3988,8 @@
       <c r="A104" t="s">
         <v>22</v>
       </c>
-      <c r="B104" t="s">
-        <v>468</v>
+      <c r="B104" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C104" t="s">
         <v>196</v>
@@ -3845,8 +3999,8 @@
       <c r="A105" t="s">
         <v>22</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>139</v>
+      <c r="B105" t="s">
+        <v>466</v>
       </c>
       <c r="C105" t="s">
         <v>196</v>
@@ -3857,7 +4011,7 @@
         <v>22</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C106" t="s">
         <v>196</v>
@@ -3868,7 +4022,7 @@
         <v>22</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C107" t="s">
         <v>196</v>
@@ -3879,7 +4033,7 @@
         <v>22</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C108" t="s">
         <v>196</v>
@@ -3890,7 +4044,7 @@
         <v>22</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C109" t="s">
         <v>196</v>
@@ -3901,7 +4055,7 @@
         <v>22</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C110" t="s">
         <v>196</v>
@@ -3912,7 +4066,7 @@
         <v>22</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C111" t="s">
         <v>196</v>
@@ -3923,7 +4077,7 @@
         <v>22</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C112" t="s">
         <v>196</v>
@@ -3934,7 +4088,7 @@
         <v>22</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C113" t="s">
         <v>196</v>
@@ -3945,7 +4099,7 @@
         <v>22</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C114" t="s">
         <v>196</v>
@@ -3956,7 +4110,7 @@
         <v>22</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C115" t="s">
         <v>196</v>
@@ -3967,7 +4121,7 @@
         <v>22</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C116" t="s">
         <v>196</v>
@@ -3977,8 +4131,8 @@
       <c r="A117" t="s">
         <v>22</v>
       </c>
-      <c r="B117" t="s">
-        <v>469</v>
+      <c r="B117" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="C117" t="s">
         <v>196</v>
@@ -3989,7 +4143,7 @@
         <v>22</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C118" t="s">
         <v>196</v>
@@ -3999,8 +4153,8 @@
       <c r="A119" t="s">
         <v>22</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>152</v>
+      <c r="B119" t="s">
+        <v>506</v>
       </c>
       <c r="C119" t="s">
         <v>196</v>
@@ -4010,8 +4164,8 @@
       <c r="A120" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>153</v>
+      <c r="B120" t="s">
+        <v>493</v>
       </c>
       <c r="C120" t="s">
         <v>196</v>
@@ -4022,7 +4176,7 @@
         <v>22</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C121" t="s">
         <v>196</v>
@@ -4032,8 +4186,8 @@
       <c r="A122" t="s">
         <v>22</v>
       </c>
-      <c r="B122" t="s">
-        <v>154</v>
+      <c r="B122" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="C122" t="s">
         <v>196</v>
@@ -4044,7 +4198,7 @@
         <v>22</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C123" t="s">
         <v>196</v>
@@ -4054,8 +4208,8 @@
       <c r="A124" t="s">
         <v>22</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>156</v>
+      <c r="B124" t="s">
+        <v>467</v>
       </c>
       <c r="C124" t="s">
         <v>196</v>
@@ -4065,8 +4219,8 @@
       <c r="A125" t="s">
         <v>22</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>157</v>
+      <c r="B125" t="s">
+        <v>511</v>
       </c>
       <c r="C125" t="s">
         <v>196</v>
@@ -4076,8 +4230,8 @@
       <c r="A126" t="s">
         <v>22</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>158</v>
+      <c r="B126" t="s">
+        <v>468</v>
       </c>
       <c r="C126" t="s">
         <v>196</v>
@@ -4088,7 +4242,7 @@
         <v>22</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>470</v>
+        <v>139</v>
       </c>
       <c r="C127" t="s">
         <v>196</v>
@@ -4099,7 +4253,7 @@
         <v>22</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C128" t="s">
         <v>196</v>
@@ -4109,8 +4263,8 @@
       <c r="A129" t="s">
         <v>22</v>
       </c>
-      <c r="B129" t="s">
-        <v>471</v>
+      <c r="B129" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C129" t="s">
         <v>196</v>
@@ -4121,7 +4275,7 @@
         <v>22</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C130" t="s">
         <v>196</v>
@@ -4132,7 +4286,7 @@
         <v>22</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C131" t="s">
         <v>196</v>
@@ -4143,7 +4297,7 @@
         <v>22</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C132" t="s">
         <v>196</v>
@@ -4154,7 +4308,7 @@
         <v>22</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C133" t="s">
         <v>196</v>
@@ -4165,7 +4319,7 @@
         <v>22</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C134" t="s">
         <v>196</v>
@@ -4176,7 +4330,7 @@
         <v>22</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C135" t="s">
         <v>196</v>
@@ -4187,7 +4341,7 @@
         <v>22</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C136" t="s">
         <v>196</v>
@@ -4198,7 +4352,7 @@
         <v>22</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C137" t="s">
         <v>196</v>
@@ -4209,7 +4363,7 @@
         <v>22</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C138" t="s">
         <v>196</v>
@@ -4219,8 +4373,8 @@
       <c r="A139" t="s">
         <v>22</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>169</v>
+      <c r="B139" t="s">
+        <v>469</v>
       </c>
       <c r="C139" t="s">
         <v>196</v>
@@ -4231,7 +4385,7 @@
         <v>22</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C140" t="s">
         <v>196</v>
@@ -4242,7 +4396,7 @@
         <v>22</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C141" t="s">
         <v>196</v>
@@ -4253,7 +4407,7 @@
         <v>22</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C142" t="s">
         <v>196</v>
@@ -4264,7 +4418,7 @@
         <v>22</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C143" t="s">
         <v>196</v>
@@ -4275,7 +4429,7 @@
         <v>22</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C144" t="s">
         <v>196</v>
@@ -4286,7 +4440,7 @@
         <v>22</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C145" t="s">
         <v>196</v>
@@ -4297,7 +4451,7 @@
         <v>22</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C146" t="s">
         <v>196</v>
@@ -4308,7 +4462,7 @@
         <v>22</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C147" t="s">
         <v>196</v>
@@ -4319,7 +4473,7 @@
         <v>22</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>178</v>
+        <v>470</v>
       </c>
       <c r="C148" t="s">
         <v>196</v>
@@ -4330,7 +4484,7 @@
         <v>22</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C149" t="s">
         <v>196</v>
@@ -4340,8 +4494,8 @@
       <c r="A150" t="s">
         <v>22</v>
       </c>
-      <c r="B150" s="4" t="s">
-        <v>180</v>
+      <c r="B150" t="s">
+        <v>471</v>
       </c>
       <c r="C150" t="s">
         <v>196</v>
@@ -4352,7 +4506,7 @@
         <v>22</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="C151" t="s">
         <v>196</v>
@@ -4363,7 +4517,7 @@
         <v>22</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C152" t="s">
         <v>196</v>
@@ -4373,8 +4527,8 @@
       <c r="A153" t="s">
         <v>22</v>
       </c>
-      <c r="B153" t="s">
-        <v>472</v>
+      <c r="B153" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C153" t="s">
         <v>196</v>
@@ -4384,8 +4538,8 @@
       <c r="A154" t="s">
         <v>22</v>
       </c>
-      <c r="B154" s="4" t="s">
-        <v>183</v>
+      <c r="B154" t="s">
+        <v>494</v>
       </c>
       <c r="C154" t="s">
         <v>196</v>
@@ -4396,7 +4550,7 @@
         <v>22</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="C155" t="s">
         <v>196</v>
@@ -4407,7 +4561,7 @@
         <v>22</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C156" t="s">
         <v>196</v>
@@ -4417,8 +4571,8 @@
       <c r="A157" t="s">
         <v>22</v>
       </c>
-      <c r="B157" s="4" t="s">
-        <v>186</v>
+      <c r="B157" t="s">
+        <v>495</v>
       </c>
       <c r="C157" t="s">
         <v>196</v>
@@ -4429,7 +4583,7 @@
         <v>22</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C158" t="s">
         <v>196</v>
@@ -4439,8 +4593,8 @@
       <c r="A159" t="s">
         <v>22</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>188</v>
+      <c r="B159" t="s">
+        <v>528</v>
       </c>
       <c r="C159" t="s">
         <v>196</v>
@@ -4451,7 +4605,7 @@
         <v>22</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C160" t="s">
         <v>196</v>
@@ -4462,7 +4616,7 @@
         <v>22</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="C161" t="s">
         <v>196</v>
@@ -4473,7 +4627,7 @@
         <v>22</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C162" t="s">
         <v>196</v>
@@ -4484,7 +4638,7 @@
         <v>22</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C163" t="s">
         <v>196</v>
@@ -4492,7 +4646,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>52</v>
+        <v>22</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="C164" t="s">
         <v>196</v>
@@ -4500,10 +4657,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B165" t="s">
-        <v>322</v>
+        <v>514</v>
       </c>
       <c r="C165" t="s">
         <v>196</v>
@@ -4511,10 +4668,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>52</v>
-      </c>
-      <c r="B166" t="s">
-        <v>323</v>
+        <v>22</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="C166" t="s">
         <v>196</v>
@@ -4522,10 +4679,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>52</v>
-      </c>
-      <c r="B167" t="s">
-        <v>324</v>
+        <v>22</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="C167" t="s">
         <v>196</v>
@@ -4533,10 +4690,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>52</v>
-      </c>
-      <c r="B168" t="s">
-        <v>325</v>
+        <v>22</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="C168" t="s">
         <v>196</v>
@@ -4544,10 +4701,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>52</v>
-      </c>
-      <c r="B169" t="s">
-        <v>326</v>
+        <v>22</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="C169" t="s">
         <v>196</v>
@@ -4555,10 +4712,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B170" t="s">
-        <v>327</v>
+        <v>487</v>
       </c>
       <c r="C170" t="s">
         <v>196</v>
@@ -4566,10 +4723,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B171" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="C171" t="s">
         <v>196</v>
@@ -4577,10 +4734,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>52</v>
-      </c>
-      <c r="B172" t="s">
-        <v>329</v>
+        <v>22</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="C172" t="s">
         <v>196</v>
@@ -4588,10 +4745,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>52</v>
-      </c>
-      <c r="B173" t="s">
-        <v>330</v>
+        <v>22</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="C173" t="s">
         <v>196</v>
@@ -4599,10 +4756,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>52</v>
-      </c>
-      <c r="B174" t="s">
-        <v>331</v>
+        <v>22</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C174" t="s">
         <v>196</v>
@@ -4610,10 +4767,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>52</v>
-      </c>
-      <c r="B175" t="s">
-        <v>332</v>
+        <v>22</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="C175" t="s">
         <v>196</v>
@@ -4621,10 +4778,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>52</v>
-      </c>
-      <c r="B176" t="s">
-        <v>333</v>
+        <v>22</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="C176" t="s">
         <v>196</v>
@@ -4632,10 +4789,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>52</v>
-      </c>
-      <c r="B177" t="s">
-        <v>334</v>
+        <v>22</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="C177" t="s">
         <v>196</v>
@@ -4643,10 +4800,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>52</v>
-      </c>
-      <c r="B178" t="s">
-        <v>335</v>
+        <v>22</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="C178" t="s">
         <v>196</v>
@@ -4654,10 +4811,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>52</v>
-      </c>
-      <c r="B179" t="s">
-        <v>336</v>
+        <v>22</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="C179" t="s">
         <v>196</v>
@@ -4665,10 +4822,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B180" t="s">
-        <v>337</v>
+        <v>504</v>
       </c>
       <c r="C180" t="s">
         <v>196</v>
@@ -4676,10 +4833,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B181" t="s">
-        <v>338</v>
+        <v>472</v>
       </c>
       <c r="C181" t="s">
         <v>196</v>
@@ -4687,10 +4844,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>52</v>
-      </c>
-      <c r="B182" t="s">
-        <v>339</v>
+        <v>22</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="C182" t="s">
         <v>196</v>
@@ -4698,10 +4855,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B183" t="s">
-        <v>340</v>
+        <v>22</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C183" t="s">
         <v>196</v>
@@ -4709,10 +4866,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B184" t="s">
-        <v>341</v>
+        <v>490</v>
       </c>
       <c r="C184" t="s">
         <v>196</v>
@@ -4720,10 +4877,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>52</v>
-      </c>
-      <c r="B185" t="s">
-        <v>342</v>
+        <v>22</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="C185" t="s">
         <v>196</v>
@@ -4731,10 +4888,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B186" t="s">
-        <v>343</v>
+        <v>524</v>
       </c>
       <c r="C186" t="s">
         <v>196</v>
@@ -4742,10 +4899,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>52</v>
-      </c>
-      <c r="B187" t="s">
-        <v>344</v>
+        <v>22</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="C187" t="s">
         <v>196</v>
@@ -4753,10 +4910,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>52</v>
-      </c>
-      <c r="B188" t="s">
-        <v>345</v>
+        <v>22</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="C188" t="s">
         <v>196</v>
@@ -4764,10 +4921,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>52</v>
-      </c>
-      <c r="B189" t="s">
-        <v>346</v>
+        <v>22</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4775,10 +4932,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>52</v>
-      </c>
-      <c r="B190" t="s">
-        <v>347</v>
+        <v>22</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="C190" t="s">
         <v>196</v>
@@ -4786,10 +4943,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>52</v>
-      </c>
-      <c r="B191" t="s">
-        <v>348</v>
+        <v>22</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="C191" t="s">
         <v>196</v>
@@ -4797,10 +4954,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>52</v>
-      </c>
-      <c r="B192" t="s">
-        <v>349</v>
+        <v>22</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="C192" t="s">
         <v>196</v>
@@ -4808,10 +4965,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>52</v>
-      </c>
-      <c r="B193" t="s">
-        <v>350</v>
+        <v>22</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="C193" t="s">
         <v>196</v>
@@ -4821,9 +4978,6 @@
       <c r="A194" t="s">
         <v>52</v>
       </c>
-      <c r="B194" t="s">
-        <v>351</v>
-      </c>
       <c r="C194" t="s">
         <v>196</v>
       </c>
@@ -4833,7 +4987,7 @@
         <v>52</v>
       </c>
       <c r="B195" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="C195" t="s">
         <v>196</v>
@@ -4844,7 +4998,7 @@
         <v>52</v>
       </c>
       <c r="B196" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="C196" t="s">
         <v>196</v>
@@ -4855,7 +5009,7 @@
         <v>52</v>
       </c>
       <c r="B197" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C197" t="s">
         <v>196</v>
@@ -4866,7 +5020,7 @@
         <v>52</v>
       </c>
       <c r="B198" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C198" t="s">
         <v>196</v>
@@ -4877,7 +5031,7 @@
         <v>52</v>
       </c>
       <c r="B199" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C199" t="s">
         <v>196</v>
@@ -4888,7 +5042,7 @@
         <v>52</v>
       </c>
       <c r="B200" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="C200" t="s">
         <v>196</v>
@@ -4899,7 +5053,7 @@
         <v>52</v>
       </c>
       <c r="B201" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="C201" t="s">
         <v>196</v>
@@ -4910,7 +5064,7 @@
         <v>52</v>
       </c>
       <c r="B202" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="C202" t="s">
         <v>196</v>
@@ -4921,7 +5075,7 @@
         <v>52</v>
       </c>
       <c r="B203" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="C203" t="s">
         <v>196</v>
@@ -4932,7 +5086,7 @@
         <v>52</v>
       </c>
       <c r="B204" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="C204" t="s">
         <v>196</v>
@@ -4943,7 +5097,7 @@
         <v>52</v>
       </c>
       <c r="B205" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="C205" t="s">
         <v>196</v>
@@ -4954,7 +5108,7 @@
         <v>52</v>
       </c>
       <c r="B206" t="s">
-        <v>473</v>
+        <v>333</v>
       </c>
       <c r="C206" t="s">
         <v>196</v>
@@ -4965,7 +5119,7 @@
         <v>52</v>
       </c>
       <c r="B207" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="C207" t="s">
         <v>196</v>
@@ -4976,7 +5130,7 @@
         <v>52</v>
       </c>
       <c r="B208" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="C208" t="s">
         <v>196</v>
@@ -4987,7 +5141,7 @@
         <v>52</v>
       </c>
       <c r="B209" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="C209" t="s">
         <v>196</v>
@@ -4998,7 +5152,7 @@
         <v>52</v>
       </c>
       <c r="B210" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="C210" t="s">
         <v>196</v>
@@ -5009,7 +5163,7 @@
         <v>52</v>
       </c>
       <c r="B211" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="C211" t="s">
         <v>196</v>
@@ -5020,7 +5174,7 @@
         <v>52</v>
       </c>
       <c r="B212" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="C212" t="s">
         <v>196</v>
@@ -5031,7 +5185,7 @@
         <v>52</v>
       </c>
       <c r="B213" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="C213" t="s">
         <v>196</v>
@@ -5042,7 +5196,7 @@
         <v>52</v>
       </c>
       <c r="B214" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="C214" t="s">
         <v>196</v>
@@ -5053,7 +5207,7 @@
         <v>52</v>
       </c>
       <c r="B215" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="C215" t="s">
         <v>196</v>
@@ -5064,7 +5218,7 @@
         <v>52</v>
       </c>
       <c r="B216" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="C216" t="s">
         <v>196</v>
@@ -5075,7 +5229,7 @@
         <v>52</v>
       </c>
       <c r="B217" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="C217" t="s">
         <v>196</v>
@@ -5086,7 +5240,7 @@
         <v>52</v>
       </c>
       <c r="B218" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="C218" t="s">
         <v>196</v>
@@ -5097,7 +5251,7 @@
         <v>52</v>
       </c>
       <c r="B219" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="C219" t="s">
         <v>196</v>
@@ -5108,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B220" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="C220" t="s">
         <v>196</v>
@@ -5119,7 +5273,7 @@
         <v>52</v>
       </c>
       <c r="B221" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="C221" t="s">
         <v>196</v>
@@ -5130,7 +5284,7 @@
         <v>52</v>
       </c>
       <c r="B222" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="C222" t="s">
         <v>196</v>
@@ -5141,7 +5295,7 @@
         <v>52</v>
       </c>
       <c r="B223" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="C223" t="s">
         <v>196</v>
@@ -5152,7 +5306,7 @@
         <v>52</v>
       </c>
       <c r="B224" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="C224" t="s">
         <v>196</v>
@@ -5163,7 +5317,7 @@
         <v>52</v>
       </c>
       <c r="B225" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="C225" t="s">
         <v>196</v>
@@ -5174,7 +5328,7 @@
         <v>52</v>
       </c>
       <c r="B226" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="C226" t="s">
         <v>196</v>
@@ -5185,7 +5339,7 @@
         <v>52</v>
       </c>
       <c r="B227" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="C227" t="s">
         <v>196</v>
@@ -5196,7 +5350,7 @@
         <v>52</v>
       </c>
       <c r="B228" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="C228" t="s">
         <v>196</v>
@@ -5207,7 +5361,7 @@
         <v>52</v>
       </c>
       <c r="B229" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="C229" t="s">
         <v>196</v>
@@ -5218,7 +5372,7 @@
         <v>52</v>
       </c>
       <c r="B230" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="C230" t="s">
         <v>196</v>
@@ -5229,7 +5383,7 @@
         <v>52</v>
       </c>
       <c r="B231" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="C231" t="s">
         <v>196</v>
@@ -5240,7 +5394,7 @@
         <v>52</v>
       </c>
       <c r="B232" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="C232" t="s">
         <v>196</v>
@@ -5251,7 +5405,7 @@
         <v>52</v>
       </c>
       <c r="B233" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="C233" t="s">
         <v>196</v>
@@ -5262,7 +5416,7 @@
         <v>52</v>
       </c>
       <c r="B234" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="C234" t="s">
         <v>196</v>
@@ -5273,7 +5427,7 @@
         <v>52</v>
       </c>
       <c r="B235" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="C235" t="s">
         <v>196</v>
@@ -5284,7 +5438,7 @@
         <v>52</v>
       </c>
       <c r="B236" t="s">
-        <v>392</v>
+        <v>473</v>
       </c>
       <c r="C236" t="s">
         <v>196</v>
@@ -5295,7 +5449,7 @@
         <v>52</v>
       </c>
       <c r="B237" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="C237" t="s">
         <v>196</v>
@@ -5306,7 +5460,7 @@
         <v>52</v>
       </c>
       <c r="B238" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="C238" t="s">
         <v>196</v>
@@ -5317,7 +5471,7 @@
         <v>52</v>
       </c>
       <c r="B239" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="C239" t="s">
         <v>196</v>
@@ -5328,7 +5482,7 @@
         <v>52</v>
       </c>
       <c r="B240" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="C240" t="s">
         <v>196</v>
@@ -5339,7 +5493,7 @@
         <v>52</v>
       </c>
       <c r="B241" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="C241" t="s">
         <v>196</v>
@@ -5350,7 +5504,7 @@
         <v>52</v>
       </c>
       <c r="B242" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="C242" t="s">
         <v>196</v>
@@ -5361,7 +5515,7 @@
         <v>52</v>
       </c>
       <c r="B243" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="C243" t="s">
         <v>196</v>
@@ -5372,7 +5526,7 @@
         <v>52</v>
       </c>
       <c r="B244" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="C244" t="s">
         <v>196</v>
@@ -5383,7 +5537,7 @@
         <v>52</v>
       </c>
       <c r="B245" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="C245" t="s">
         <v>196</v>
@@ -5394,7 +5548,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="C246" t="s">
         <v>196</v>
@@ -5405,7 +5559,7 @@
         <v>52</v>
       </c>
       <c r="B247" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="C247" t="s">
         <v>196</v>
@@ -5416,7 +5570,7 @@
         <v>52</v>
       </c>
       <c r="B248" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="C248" t="s">
         <v>196</v>
@@ -5427,7 +5581,7 @@
         <v>52</v>
       </c>
       <c r="B249" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="C249" t="s">
         <v>196</v>
@@ -5438,7 +5592,7 @@
         <v>52</v>
       </c>
       <c r="B250" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="C250" t="s">
         <v>196</v>
@@ -5449,7 +5603,7 @@
         <v>52</v>
       </c>
       <c r="B251" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="C251" t="s">
         <v>196</v>
@@ -5460,7 +5614,7 @@
         <v>52</v>
       </c>
       <c r="B252" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="C252" t="s">
         <v>196</v>
@@ -5471,7 +5625,7 @@
         <v>52</v>
       </c>
       <c r="B253" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="C253" t="s">
         <v>196</v>
@@ -5482,7 +5636,7 @@
         <v>52</v>
       </c>
       <c r="B254" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="C254" t="s">
         <v>196</v>
@@ -5493,7 +5647,7 @@
         <v>52</v>
       </c>
       <c r="B255" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="C255" t="s">
         <v>196</v>
@@ -5504,7 +5658,7 @@
         <v>52</v>
       </c>
       <c r="B256" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="C256" t="s">
         <v>196</v>
@@ -5515,7 +5669,7 @@
         <v>52</v>
       </c>
       <c r="B257" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="C257" t="s">
         <v>196</v>
@@ -5526,7 +5680,7 @@
         <v>52</v>
       </c>
       <c r="B258" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="C258" t="s">
         <v>196</v>
@@ -5537,7 +5691,7 @@
         <v>52</v>
       </c>
       <c r="B259" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="C259" t="s">
         <v>196</v>
@@ -5548,7 +5702,7 @@
         <v>52</v>
       </c>
       <c r="B260" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="C260" t="s">
         <v>196</v>
@@ -5559,7 +5713,7 @@
         <v>52</v>
       </c>
       <c r="B261" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="C261" t="s">
         <v>196</v>
@@ -5570,7 +5724,7 @@
         <v>52</v>
       </c>
       <c r="B262" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="C262" t="s">
         <v>196</v>
@@ -5581,7 +5735,7 @@
         <v>52</v>
       </c>
       <c r="B263" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="C263" t="s">
         <v>196</v>
@@ -5592,7 +5746,7 @@
         <v>52</v>
       </c>
       <c r="B264" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="C264" t="s">
         <v>196</v>
@@ -5603,7 +5757,7 @@
         <v>52</v>
       </c>
       <c r="B265" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="C265" t="s">
         <v>196</v>
@@ -5614,7 +5768,7 @@
         <v>52</v>
       </c>
       <c r="B266" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="C266" t="s">
         <v>196</v>
@@ -5625,7 +5779,7 @@
         <v>52</v>
       </c>
       <c r="B267" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="C267" t="s">
         <v>196</v>
@@ -5636,7 +5790,7 @@
         <v>52</v>
       </c>
       <c r="B268" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="C268" t="s">
         <v>196</v>
@@ -5647,7 +5801,7 @@
         <v>52</v>
       </c>
       <c r="B269" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="C269" t="s">
         <v>196</v>
@@ -5658,7 +5812,7 @@
         <v>52</v>
       </c>
       <c r="B270" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="C270" t="s">
         <v>196</v>
@@ -5669,7 +5823,7 @@
         <v>52</v>
       </c>
       <c r="B271" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="C271" t="s">
         <v>196</v>
@@ -5680,7 +5834,7 @@
         <v>52</v>
       </c>
       <c r="B272" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="C272" t="s">
         <v>196</v>
@@ -5691,7 +5845,7 @@
         <v>52</v>
       </c>
       <c r="B273" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="C273" t="s">
         <v>196</v>
@@ -5702,7 +5856,7 @@
         <v>52</v>
       </c>
       <c r="B274" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="C274" t="s">
         <v>196</v>
@@ -5713,7 +5867,7 @@
         <v>52</v>
       </c>
       <c r="B275" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="C275" t="s">
         <v>196</v>
@@ -5724,7 +5878,7 @@
         <v>52</v>
       </c>
       <c r="B276" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="C276" t="s">
         <v>196</v>
@@ -5735,7 +5889,7 @@
         <v>52</v>
       </c>
       <c r="B277" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="C277" t="s">
         <v>196</v>
@@ -5746,7 +5900,7 @@
         <v>52</v>
       </c>
       <c r="B278" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="C278" t="s">
         <v>196</v>
@@ -5757,7 +5911,7 @@
         <v>52</v>
       </c>
       <c r="B279" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C279" t="s">
         <v>196</v>
@@ -5768,7 +5922,7 @@
         <v>52</v>
       </c>
       <c r="B280" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="C280" t="s">
         <v>196</v>
@@ -5779,7 +5933,7 @@
         <v>52</v>
       </c>
       <c r="B281" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="C281" t="s">
         <v>196</v>
@@ -5790,7 +5944,7 @@
         <v>52</v>
       </c>
       <c r="B282" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="C282" t="s">
         <v>196</v>
@@ -5801,7 +5955,7 @@
         <v>52</v>
       </c>
       <c r="B283" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="C283" t="s">
         <v>196</v>
@@ -5812,7 +5966,7 @@
         <v>52</v>
       </c>
       <c r="B284" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="C284" t="s">
         <v>196</v>
@@ -5823,7 +5977,7 @@
         <v>52</v>
       </c>
       <c r="B285" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="C285" t="s">
         <v>196</v>
@@ -5834,7 +5988,7 @@
         <v>52</v>
       </c>
       <c r="B286" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="C286" t="s">
         <v>196</v>
@@ -5845,7 +5999,7 @@
         <v>52</v>
       </c>
       <c r="B287" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="C287" t="s">
         <v>196</v>
@@ -5856,7 +6010,7 @@
         <v>52</v>
       </c>
       <c r="B288" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="C288" t="s">
         <v>196</v>
@@ -5867,7 +6021,7 @@
         <v>52</v>
       </c>
       <c r="B289" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="C289" t="s">
         <v>196</v>
@@ -5878,7 +6032,7 @@
         <v>52</v>
       </c>
       <c r="B290" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="C290" t="s">
         <v>196</v>
@@ -5889,7 +6043,7 @@
         <v>52</v>
       </c>
       <c r="B291" t="s">
-        <v>183</v>
+        <v>416</v>
       </c>
       <c r="C291" t="s">
         <v>196</v>
@@ -5900,7 +6054,7 @@
         <v>52</v>
       </c>
       <c r="B292" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="C292" t="s">
         <v>196</v>
@@ -5911,7 +6065,7 @@
         <v>52</v>
       </c>
       <c r="B293" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="C293" t="s">
         <v>196</v>
@@ -5922,7 +6076,7 @@
         <v>52</v>
       </c>
       <c r="B294" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="C294" t="s">
         <v>196</v>
@@ -5933,7 +6087,7 @@
         <v>52</v>
       </c>
       <c r="B295" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="C295" t="s">
         <v>196</v>
@@ -5944,7 +6098,7 @@
         <v>52</v>
       </c>
       <c r="B296" t="s">
-        <v>451</v>
+        <v>497</v>
       </c>
       <c r="C296" t="s">
         <v>196</v>
@@ -5955,7 +6109,7 @@
         <v>52</v>
       </c>
       <c r="B297" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="C297" t="s">
         <v>196</v>
@@ -5966,27 +6120,29 @@
         <v>52</v>
       </c>
       <c r="B298" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="C298" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A299" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B299" s="4"/>
+      <c r="A299" t="s">
+        <v>52</v>
+      </c>
+      <c r="B299" t="s">
+        <v>423</v>
+      </c>
       <c r="C299" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B300" t="s">
-        <v>137</v>
+        <v>424</v>
       </c>
       <c r="C300" t="s">
         <v>196</v>
@@ -5994,10 +6150,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B301" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C301" t="s">
         <v>196</v>
@@ -6005,10 +6161,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B302" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="C302" t="s">
         <v>196</v>
@@ -6016,10 +6172,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B303" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
       <c r="C303" t="s">
         <v>196</v>
@@ -6027,10 +6183,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B304" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="C304" t="s">
         <v>196</v>
@@ -6038,10 +6194,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B305" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="C305" t="s">
         <v>196</v>
@@ -6049,10 +6205,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B306" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="C306" t="s">
         <v>196</v>
@@ -6060,10 +6216,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B307" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="C307" t="s">
         <v>196</v>
@@ -6071,10 +6227,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B308" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="C308" t="s">
         <v>196</v>
@@ -6082,10 +6238,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B309" t="s">
-        <v>207</v>
+        <v>433</v>
       </c>
       <c r="C309" t="s">
         <v>196</v>
@@ -6093,10 +6249,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B310" t="s">
-        <v>208</v>
+        <v>434</v>
       </c>
       <c r="C310" t="s">
         <v>196</v>
@@ -6104,10 +6260,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B311" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
       <c r="C311" t="s">
         <v>196</v>
@@ -6115,10 +6271,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B312" t="s">
-        <v>210</v>
+        <v>436</v>
       </c>
       <c r="C312" t="s">
         <v>196</v>
@@ -6126,10 +6282,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B313" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="C313" t="s">
         <v>196</v>
@@ -6137,10 +6293,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B314" t="s">
-        <v>212</v>
+        <v>438</v>
       </c>
       <c r="C314" t="s">
         <v>196</v>
@@ -6148,10 +6304,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B315" t="s">
-        <v>213</v>
+        <v>439</v>
       </c>
       <c r="C315" t="s">
         <v>196</v>
@@ -6159,10 +6315,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B316" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="C316" t="s">
         <v>196</v>
@@ -6170,10 +6326,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B317" t="s">
-        <v>215</v>
+        <v>441</v>
       </c>
       <c r="C317" t="s">
         <v>196</v>
@@ -6181,10 +6337,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B318" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C318" t="s">
         <v>196</v>
@@ -6192,10 +6348,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B319" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C319" t="s">
         <v>196</v>
@@ -6203,10 +6359,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B320" t="s">
-        <v>216</v>
+        <v>444</v>
       </c>
       <c r="C320" t="s">
         <v>196</v>
@@ -6214,10 +6370,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B321" t="s">
-        <v>217</v>
+        <v>445</v>
       </c>
       <c r="C321" t="s">
         <v>196</v>
@@ -6225,10 +6381,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B322" t="s">
-        <v>218</v>
+        <v>446</v>
       </c>
       <c r="C322" t="s">
         <v>196</v>
@@ -6236,10 +6392,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B323" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="C323" t="s">
         <v>196</v>
@@ -6247,10 +6403,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B324" t="s">
-        <v>220</v>
+        <v>447</v>
       </c>
       <c r="C324" t="s">
         <v>196</v>
@@ -6258,10 +6414,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B325" t="s">
-        <v>221</v>
+        <v>448</v>
       </c>
       <c r="C325" t="s">
         <v>196</v>
@@ -6269,10 +6425,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B326" t="s">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="C326" t="s">
         <v>196</v>
@@ -6280,10 +6436,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B327" t="s">
-        <v>223</v>
+        <v>450</v>
       </c>
       <c r="C327" t="s">
         <v>196</v>
@@ -6291,10 +6447,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B328" t="s">
-        <v>224</v>
+        <v>451</v>
       </c>
       <c r="C328" t="s">
         <v>196</v>
@@ -6302,10 +6458,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B329" t="s">
-        <v>225</v>
+        <v>452</v>
       </c>
       <c r="C329" t="s">
         <v>196</v>
@@ -6313,22 +6469,20 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B330" t="s">
-        <v>226</v>
+        <v>453</v>
       </c>
       <c r="C330" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A331" t="s">
-        <v>50</v>
-      </c>
-      <c r="B331" t="s">
-        <v>227</v>
-      </c>
+      <c r="A331" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B331" s="4"/>
       <c r="C331" t="s">
         <v>196</v>
       </c>
@@ -6338,7 +6492,7 @@
         <v>50</v>
       </c>
       <c r="B332" t="s">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="C332" t="s">
         <v>196</v>
@@ -6349,7 +6503,7 @@
         <v>50</v>
       </c>
       <c r="B333" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="C333" t="s">
         <v>196</v>
@@ -6360,7 +6514,7 @@
         <v>50</v>
       </c>
       <c r="B334" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="C334" t="s">
         <v>196</v>
@@ -6371,7 +6525,7 @@
         <v>50</v>
       </c>
       <c r="B335" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C335" t="s">
         <v>196</v>
@@ -6382,7 +6536,7 @@
         <v>50</v>
       </c>
       <c r="B336" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C336" t="s">
         <v>196</v>
@@ -6393,7 +6547,7 @@
         <v>50</v>
       </c>
       <c r="B337" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="C337" t="s">
         <v>196</v>
@@ -6404,7 +6558,7 @@
         <v>50</v>
       </c>
       <c r="B338" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="C338" t="s">
         <v>196</v>
@@ -6415,7 +6569,7 @@
         <v>50</v>
       </c>
       <c r="B339" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="C339" t="s">
         <v>196</v>
@@ -6426,7 +6580,7 @@
         <v>50</v>
       </c>
       <c r="B340" t="s">
-        <v>236</v>
+        <v>483</v>
       </c>
       <c r="C340" t="s">
         <v>196</v>
@@ -6437,7 +6591,7 @@
         <v>50</v>
       </c>
       <c r="B341" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="C341" t="s">
         <v>196</v>
@@ -6448,7 +6602,7 @@
         <v>50</v>
       </c>
       <c r="B342" t="s">
-        <v>474</v>
+        <v>207</v>
       </c>
       <c r="C342" t="s">
         <v>196</v>
@@ -6459,7 +6613,7 @@
         <v>50</v>
       </c>
       <c r="B343" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="C343" t="s">
         <v>196</v>
@@ -6470,7 +6624,7 @@
         <v>50</v>
       </c>
       <c r="B344" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="C344" t="s">
         <v>196</v>
@@ -6481,7 +6635,7 @@
         <v>50</v>
       </c>
       <c r="B345" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="C345" t="s">
         <v>196</v>
@@ -6492,7 +6646,7 @@
         <v>50</v>
       </c>
       <c r="B346" t="s">
-        <v>241</v>
+        <v>500</v>
       </c>
       <c r="C346" t="s">
         <v>196</v>
@@ -6503,7 +6657,7 @@
         <v>50</v>
       </c>
       <c r="B347" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="C347" t="s">
         <v>196</v>
@@ -6514,7 +6668,7 @@
         <v>50</v>
       </c>
       <c r="B348" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="C348" t="s">
         <v>196</v>
@@ -6525,7 +6679,7 @@
         <v>50</v>
       </c>
       <c r="B349" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="C349" t="s">
         <v>196</v>
@@ -6536,7 +6690,7 @@
         <v>50</v>
       </c>
       <c r="B350" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="C350" t="s">
         <v>196</v>
@@ -6547,7 +6701,7 @@
         <v>50</v>
       </c>
       <c r="B351" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="C351" t="s">
         <v>196</v>
@@ -6558,7 +6712,7 @@
         <v>50</v>
       </c>
       <c r="B352" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="C352" t="s">
         <v>196</v>
@@ -6569,7 +6723,7 @@
         <v>50</v>
       </c>
       <c r="B353" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="C353" t="s">
         <v>196</v>
@@ -6580,7 +6734,7 @@
         <v>50</v>
       </c>
       <c r="B354" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="C354" t="s">
         <v>196</v>
@@ -6591,7 +6745,7 @@
         <v>50</v>
       </c>
       <c r="B355" t="s">
-        <v>249</v>
+        <v>484</v>
       </c>
       <c r="C355" t="s">
         <v>196</v>
@@ -6602,7 +6756,7 @@
         <v>50</v>
       </c>
       <c r="B356" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="C356" t="s">
         <v>196</v>
@@ -6613,7 +6767,7 @@
         <v>50</v>
       </c>
       <c r="B357" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="C357" t="s">
         <v>196</v>
@@ -6624,7 +6778,7 @@
         <v>50</v>
       </c>
       <c r="B358" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="C358" t="s">
         <v>196</v>
@@ -6635,7 +6789,7 @@
         <v>50</v>
       </c>
       <c r="B359" t="s">
-        <v>455</v>
+        <v>221</v>
       </c>
       <c r="C359" t="s">
         <v>196</v>
@@ -6646,7 +6800,7 @@
         <v>50</v>
       </c>
       <c r="B360" t="s">
-        <v>455</v>
+        <v>222</v>
       </c>
       <c r="C360" t="s">
         <v>196</v>
@@ -6657,7 +6811,7 @@
         <v>50</v>
       </c>
       <c r="B361" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="C361" t="s">
         <v>196</v>
@@ -6668,7 +6822,7 @@
         <v>50</v>
       </c>
       <c r="B362" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="C362" t="s">
         <v>196</v>
@@ -6679,7 +6833,7 @@
         <v>50</v>
       </c>
       <c r="B363" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="C363" t="s">
         <v>196</v>
@@ -6690,7 +6844,7 @@
         <v>50</v>
       </c>
       <c r="B364" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="C364" t="s">
         <v>196</v>
@@ -6701,7 +6855,7 @@
         <v>50</v>
       </c>
       <c r="B365" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="C365" t="s">
         <v>196</v>
@@ -6712,7 +6866,7 @@
         <v>50</v>
       </c>
       <c r="B366" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="C366" t="s">
         <v>196</v>
@@ -6723,7 +6877,7 @@
         <v>50</v>
       </c>
       <c r="B367" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="C367" t="s">
         <v>196</v>
@@ -6734,7 +6888,7 @@
         <v>50</v>
       </c>
       <c r="B368" t="s">
-        <v>260</v>
+        <v>501</v>
       </c>
       <c r="C368" t="s">
         <v>196</v>
@@ -6745,7 +6899,7 @@
         <v>50</v>
       </c>
       <c r="B369" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="C369" t="s">
         <v>196</v>
@@ -6756,7 +6910,7 @@
         <v>50</v>
       </c>
       <c r="B370" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="C370" t="s">
         <v>196</v>
@@ -6767,7 +6921,7 @@
         <v>50</v>
       </c>
       <c r="B371" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="C371" t="s">
         <v>196</v>
@@ -6778,7 +6932,7 @@
         <v>50</v>
       </c>
       <c r="B372" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C372" t="s">
         <v>196</v>
@@ -6789,7 +6943,7 @@
         <v>50</v>
       </c>
       <c r="B373" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="C373" t="s">
         <v>196</v>
@@ -6800,7 +6954,7 @@
         <v>50</v>
       </c>
       <c r="B374" t="s">
-        <v>476</v>
+        <v>235</v>
       </c>
       <c r="C374" t="s">
         <v>196</v>
@@ -6811,7 +6965,7 @@
         <v>50</v>
       </c>
       <c r="B375" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="C375" t="s">
         <v>196</v>
@@ -6822,7 +6976,7 @@
         <v>50</v>
       </c>
       <c r="B376" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="C376" t="s">
         <v>196</v>
@@ -6833,7 +6987,7 @@
         <v>50</v>
       </c>
       <c r="B377" t="s">
-        <v>268</v>
+        <v>474</v>
       </c>
       <c r="C377" t="s">
         <v>196</v>
@@ -6844,7 +6998,7 @@
         <v>50</v>
       </c>
       <c r="B378" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="C378" t="s">
         <v>196</v>
@@ -6855,7 +7009,7 @@
         <v>50</v>
       </c>
       <c r="B379" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="C379" t="s">
         <v>196</v>
@@ -6866,7 +7020,7 @@
         <v>50</v>
       </c>
       <c r="B380" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C380" t="s">
         <v>196</v>
@@ -6877,7 +7031,7 @@
         <v>50</v>
       </c>
       <c r="B381" t="s">
-        <v>272</v>
+        <v>519</v>
       </c>
       <c r="C381" t="s">
         <v>196</v>
@@ -6888,7 +7042,7 @@
         <v>50</v>
       </c>
       <c r="B382" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C382" t="s">
         <v>196</v>
@@ -6899,7 +7053,7 @@
         <v>50</v>
       </c>
       <c r="B383" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="C383" t="s">
         <v>196</v>
@@ -6910,7 +7064,7 @@
         <v>50</v>
       </c>
       <c r="B384" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="C384" t="s">
         <v>196</v>
@@ -6921,7 +7075,7 @@
         <v>50</v>
       </c>
       <c r="B385" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="C385" t="s">
         <v>196</v>
@@ -6932,7 +7086,7 @@
         <v>50</v>
       </c>
       <c r="B386" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="C386" t="s">
         <v>196</v>
@@ -6943,7 +7097,7 @@
         <v>50</v>
       </c>
       <c r="B387" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="C387" t="s">
         <v>196</v>
@@ -6954,7 +7108,7 @@
         <v>50</v>
       </c>
       <c r="B388" t="s">
-        <v>279</v>
+        <v>475</v>
       </c>
       <c r="C388" t="s">
         <v>196</v>
@@ -6965,7 +7119,7 @@
         <v>50</v>
       </c>
       <c r="B389" t="s">
-        <v>280</v>
+        <v>518</v>
       </c>
       <c r="C389" t="s">
         <v>196</v>
@@ -6976,7 +7130,7 @@
         <v>50</v>
       </c>
       <c r="B390" t="s">
-        <v>281</v>
+        <v>481</v>
       </c>
       <c r="C390" t="s">
         <v>196</v>
@@ -6987,7 +7141,7 @@
         <v>50</v>
       </c>
       <c r="B391" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="C391" t="s">
         <v>196</v>
@@ -6998,7 +7152,7 @@
         <v>50</v>
       </c>
       <c r="B392" t="s">
-        <v>283</v>
+        <v>517</v>
       </c>
       <c r="C392" t="s">
         <v>196</v>
@@ -7009,7 +7163,7 @@
         <v>50</v>
       </c>
       <c r="B393" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="C393" t="s">
         <v>196</v>
@@ -7020,7 +7174,7 @@
         <v>50</v>
       </c>
       <c r="B394" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="C394" t="s">
         <v>196</v>
@@ -7031,7 +7185,7 @@
         <v>50</v>
       </c>
       <c r="B395" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="C395" t="s">
         <v>196</v>
@@ -7042,7 +7196,7 @@
         <v>50</v>
       </c>
       <c r="B396" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="C396" t="s">
         <v>196</v>
@@ -7053,7 +7207,7 @@
         <v>50</v>
       </c>
       <c r="B397" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="C397" t="s">
         <v>196</v>
@@ -7064,7 +7218,7 @@
         <v>50</v>
       </c>
       <c r="B398" t="s">
-        <v>289</v>
+        <v>455</v>
       </c>
       <c r="C398" t="s">
         <v>196</v>
@@ -7075,7 +7229,7 @@
         <v>50</v>
       </c>
       <c r="B399" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="C399" t="s">
         <v>196</v>
@@ -7086,7 +7240,7 @@
         <v>50</v>
       </c>
       <c r="B400" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="C400" t="s">
         <v>196</v>
@@ -7097,7 +7251,7 @@
         <v>50</v>
       </c>
       <c r="B401" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="C401" t="s">
         <v>196</v>
@@ -7108,7 +7262,7 @@
         <v>50</v>
       </c>
       <c r="B402" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="C402" t="s">
         <v>196</v>
@@ -7119,7 +7273,7 @@
         <v>50</v>
       </c>
       <c r="B403" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="C403" t="s">
         <v>196</v>
@@ -7130,7 +7284,7 @@
         <v>50</v>
       </c>
       <c r="B404" t="s">
-        <v>477</v>
+        <v>258</v>
       </c>
       <c r="C404" t="s">
         <v>196</v>
@@ -7141,7 +7295,7 @@
         <v>50</v>
       </c>
       <c r="B405" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="C405" t="s">
         <v>196</v>
@@ -7152,7 +7306,7 @@
         <v>50</v>
       </c>
       <c r="B406" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="C406" t="s">
         <v>196</v>
@@ -7163,7 +7317,7 @@
         <v>50</v>
       </c>
       <c r="B407" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="C407" t="s">
         <v>196</v>
@@ -7174,7 +7328,7 @@
         <v>50</v>
       </c>
       <c r="B408" t="s">
-        <v>478</v>
+        <v>262</v>
       </c>
       <c r="C408" t="s">
         <v>196</v>
@@ -7185,7 +7339,7 @@
         <v>50</v>
       </c>
       <c r="B409" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="C409" t="s">
         <v>196</v>
@@ -7196,7 +7350,7 @@
         <v>50</v>
       </c>
       <c r="B410" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="C410" t="s">
         <v>196</v>
@@ -7207,7 +7361,7 @@
         <v>50</v>
       </c>
       <c r="B411" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="C411" t="s">
         <v>196</v>
@@ -7218,7 +7372,7 @@
         <v>50</v>
       </c>
       <c r="B412" t="s">
-        <v>301</v>
+        <v>476</v>
       </c>
       <c r="C412" t="s">
         <v>196</v>
@@ -7229,7 +7383,7 @@
         <v>50</v>
       </c>
       <c r="B413" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="C413" t="s">
         <v>196</v>
@@ -7240,7 +7394,7 @@
         <v>50</v>
       </c>
       <c r="B414" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="C414" t="s">
         <v>196</v>
@@ -7251,7 +7405,7 @@
         <v>50</v>
       </c>
       <c r="B415" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="C415" t="s">
         <v>196</v>
@@ -7262,7 +7416,7 @@
         <v>50</v>
       </c>
       <c r="B416" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="C416" t="s">
         <v>196</v>
@@ -7273,7 +7427,7 @@
         <v>50</v>
       </c>
       <c r="B417" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="C417" t="s">
         <v>196</v>
@@ -7284,7 +7438,7 @@
         <v>50</v>
       </c>
       <c r="B418" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="C418" t="s">
         <v>196</v>
@@ -7295,7 +7449,7 @@
         <v>50</v>
       </c>
       <c r="B419" t="s">
-        <v>308</v>
+        <v>480</v>
       </c>
       <c r="C419" t="s">
         <v>196</v>
@@ -7306,7 +7460,7 @@
         <v>50</v>
       </c>
       <c r="B420" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C420" t="s">
         <v>196</v>
@@ -7317,7 +7471,7 @@
         <v>50</v>
       </c>
       <c r="B421" t="s">
-        <v>479</v>
+        <v>272</v>
       </c>
       <c r="C421" t="s">
         <v>196</v>
@@ -7328,7 +7482,7 @@
         <v>50</v>
       </c>
       <c r="B422" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="C422" t="s">
         <v>196</v>
@@ -7339,7 +7493,7 @@
         <v>50</v>
       </c>
       <c r="B423" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="C423" t="s">
         <v>196</v>
@@ -7350,7 +7504,7 @@
         <v>50</v>
       </c>
       <c r="B424" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="C424" t="s">
         <v>196</v>
@@ -7361,7 +7515,7 @@
         <v>50</v>
       </c>
       <c r="B425" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="C425" t="s">
         <v>196</v>
@@ -7372,7 +7526,7 @@
         <v>50</v>
       </c>
       <c r="B426" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="C426" t="s">
         <v>196</v>
@@ -7383,7 +7537,7 @@
         <v>50</v>
       </c>
       <c r="B427" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="C427" t="s">
         <v>196</v>
@@ -7394,7 +7548,7 @@
         <v>50</v>
       </c>
       <c r="B428" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="C428" t="s">
         <v>196</v>
@@ -7405,7 +7559,7 @@
         <v>50</v>
       </c>
       <c r="B429" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="C429" t="s">
         <v>196</v>
@@ -7416,7 +7570,7 @@
         <v>50</v>
       </c>
       <c r="B430" t="s">
-        <v>317</v>
+        <v>520</v>
       </c>
       <c r="C430" t="s">
         <v>196</v>
@@ -7427,7 +7581,7 @@
         <v>50</v>
       </c>
       <c r="B431" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="C431" t="s">
         <v>196</v>
@@ -7438,7 +7592,7 @@
         <v>50</v>
       </c>
       <c r="B432" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="C432" t="s">
         <v>196</v>
@@ -7449,7 +7603,7 @@
         <v>50</v>
       </c>
       <c r="B433" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="C433" t="s">
         <v>196</v>
@@ -7460,15 +7614,525 @@
         <v>50</v>
       </c>
       <c r="B434" t="s">
+        <v>284</v>
+      </c>
+      <c r="C434" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A435" t="s">
+        <v>50</v>
+      </c>
+      <c r="B435" t="s">
+        <v>285</v>
+      </c>
+      <c r="C435" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A436" t="s">
+        <v>50</v>
+      </c>
+      <c r="B436" t="s">
+        <v>286</v>
+      </c>
+      <c r="C436" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A437" t="s">
+        <v>50</v>
+      </c>
+      <c r="B437" t="s">
+        <v>287</v>
+      </c>
+      <c r="C437" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A438" t="s">
+        <v>50</v>
+      </c>
+      <c r="B438" t="s">
+        <v>288</v>
+      </c>
+      <c r="C438" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A439" t="s">
+        <v>50</v>
+      </c>
+      <c r="B439" t="s">
+        <v>289</v>
+      </c>
+      <c r="C439" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A440" t="s">
+        <v>50</v>
+      </c>
+      <c r="B440" t="s">
+        <v>496</v>
+      </c>
+      <c r="C440" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A441" t="s">
+        <v>50</v>
+      </c>
+      <c r="B441" t="s">
+        <v>290</v>
+      </c>
+      <c r="C441" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A442" t="s">
+        <v>50</v>
+      </c>
+      <c r="B442" t="s">
+        <v>291</v>
+      </c>
+      <c r="C442" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A443" t="s">
+        <v>50</v>
+      </c>
+      <c r="B443" t="s">
+        <v>292</v>
+      </c>
+      <c r="C443" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A444" t="s">
+        <v>50</v>
+      </c>
+      <c r="B444" t="s">
+        <v>293</v>
+      </c>
+      <c r="C444" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A445" t="s">
+        <v>50</v>
+      </c>
+      <c r="B445" t="s">
+        <v>294</v>
+      </c>
+      <c r="C445" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A446" t="s">
+        <v>50</v>
+      </c>
+      <c r="B446" t="s">
+        <v>477</v>
+      </c>
+      <c r="C446" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A447" t="s">
+        <v>50</v>
+      </c>
+      <c r="B447" t="s">
+        <v>295</v>
+      </c>
+      <c r="C447" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A448" t="s">
+        <v>50</v>
+      </c>
+      <c r="B448" t="s">
+        <v>296</v>
+      </c>
+      <c r="C448" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A449" t="s">
+        <v>50</v>
+      </c>
+      <c r="B449" t="s">
+        <v>297</v>
+      </c>
+      <c r="C449" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A450" t="s">
+        <v>50</v>
+      </c>
+      <c r="B450" t="s">
+        <v>532</v>
+      </c>
+      <c r="C450" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A451" t="s">
+        <v>50</v>
+      </c>
+      <c r="B451" t="s">
+        <v>478</v>
+      </c>
+      <c r="C451" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A452" t="s">
+        <v>50</v>
+      </c>
+      <c r="B452" t="s">
+        <v>298</v>
+      </c>
+      <c r="C452" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A453" t="s">
+        <v>50</v>
+      </c>
+      <c r="B453" t="s">
+        <v>299</v>
+      </c>
+      <c r="C453" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A454" t="s">
+        <v>50</v>
+      </c>
+      <c r="B454" t="s">
+        <v>300</v>
+      </c>
+      <c r="C454" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A455" t="s">
+        <v>50</v>
+      </c>
+      <c r="B455" t="s">
+        <v>521</v>
+      </c>
+      <c r="C455" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A456" t="s">
+        <v>50</v>
+      </c>
+      <c r="B456" t="s">
+        <v>301</v>
+      </c>
+      <c r="C456" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A457" t="s">
+        <v>50</v>
+      </c>
+      <c r="B457" t="s">
+        <v>302</v>
+      </c>
+      <c r="C457" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A458" t="s">
+        <v>50</v>
+      </c>
+      <c r="B458" t="s">
+        <v>502</v>
+      </c>
+      <c r="C458" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A459" t="s">
+        <v>50</v>
+      </c>
+      <c r="B459" t="s">
+        <v>303</v>
+      </c>
+      <c r="C459" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A460" t="s">
+        <v>50</v>
+      </c>
+      <c r="B460" t="s">
+        <v>304</v>
+      </c>
+      <c r="C460" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A461" t="s">
+        <v>50</v>
+      </c>
+      <c r="B461" t="s">
+        <v>305</v>
+      </c>
+      <c r="C461" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A462" t="s">
+        <v>50</v>
+      </c>
+      <c r="B462" t="s">
+        <v>306</v>
+      </c>
+      <c r="C462" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A463" t="s">
+        <v>50</v>
+      </c>
+      <c r="B463" t="s">
+        <v>307</v>
+      </c>
+      <c r="C463" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A464" t="s">
+        <v>50</v>
+      </c>
+      <c r="B464" t="s">
+        <v>308</v>
+      </c>
+      <c r="C464" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A465" t="s">
+        <v>50</v>
+      </c>
+      <c r="B465" t="s">
+        <v>479</v>
+      </c>
+      <c r="C465" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A466" t="s">
+        <v>50</v>
+      </c>
+      <c r="B466" t="s">
+        <v>309</v>
+      </c>
+      <c r="C466" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A467" t="s">
+        <v>50</v>
+      </c>
+      <c r="B467" t="s">
+        <v>516</v>
+      </c>
+      <c r="C467" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A468" t="s">
+        <v>50</v>
+      </c>
+      <c r="B468" t="s">
+        <v>310</v>
+      </c>
+      <c r="C468" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A469" t="s">
+        <v>50</v>
+      </c>
+      <c r="B469" t="s">
+        <v>311</v>
+      </c>
+      <c r="C469" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A470" t="s">
+        <v>50</v>
+      </c>
+      <c r="B470" t="s">
+        <v>312</v>
+      </c>
+      <c r="C470" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A471" t="s">
+        <v>50</v>
+      </c>
+      <c r="B471" t="s">
+        <v>313</v>
+      </c>
+      <c r="C471" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A472" t="s">
+        <v>50</v>
+      </c>
+      <c r="B472" t="s">
+        <v>314</v>
+      </c>
+      <c r="C472" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A473" t="s">
+        <v>50</v>
+      </c>
+      <c r="B473" t="s">
+        <v>315</v>
+      </c>
+      <c r="C473" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A474" t="s">
+        <v>50</v>
+      </c>
+      <c r="B474" t="s">
+        <v>316</v>
+      </c>
+      <c r="C474" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A475" t="s">
+        <v>50</v>
+      </c>
+      <c r="B475" t="s">
+        <v>317</v>
+      </c>
+      <c r="C475" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A476" t="s">
+        <v>50</v>
+      </c>
+      <c r="B476" t="s">
+        <v>318</v>
+      </c>
+      <c r="C476" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A477" t="s">
+        <v>50</v>
+      </c>
+      <c r="B477" t="s">
+        <v>522</v>
+      </c>
+      <c r="C477" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A478" t="s">
+        <v>50</v>
+      </c>
+      <c r="B478" t="s">
+        <v>319</v>
+      </c>
+      <c r="C478" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A479" t="s">
+        <v>50</v>
+      </c>
+      <c r="B479" t="s">
+        <v>320</v>
+      </c>
+      <c r="C479" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A480" t="s">
+        <v>50</v>
+      </c>
+      <c r="B480" t="s">
         <v>321</v>
       </c>
-      <c r="C434" t="s">
+      <c r="C480" t="s">
         <v>196</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
-  <autoFilter ref="A1:C405" xr:uid="{61D624D3-8580-E34C-882C-FA099DEDDCE5}"/>
+  <autoFilter ref="A1:C480" xr:uid="{61D624D3-8580-E34C-882C-FA099DEDDCE5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C491">
+    <sortCondition ref="A4:A491"/>
+    <sortCondition ref="B4:B491"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>